--- a/Result_df/df_postss.xlsx
+++ b/Result_df/df_postss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,33 +481,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2F164659515665933</t>
+          <t>2F3544655432225209</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>🔴 Sigue en directo la ceremonia militar con motivo del Día de Las Fuerzas Armadas
-🔴 Sigue en directo la ceremonia militar con motivo del Día de Las Fuerzas Armadas
-Reproducir vídeo</t>
+          <t>Consulta el mapa interactiu del risc de brot de Covid-19, municipi a municipi
+Consulta el mapa interactiu del risc de brot de Covid-19, municipi a municipi
+CCMA.CAT
+Índex de risc de brot per municipis Covid-19
+Consulta l'Índex EPG per municipis i les variables que determinen el risc de brot Coronavirus Covid-19. Segueix tota la informació al 324
+CCMA.CAT
+Índex de risc de brot per municipis Covid-19</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.101922863343838</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>-1.784237350377631</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Poder q recinte els mapes bé. On es el municipi de Les Oluges? Q són ha sumat a Cervesa? Això està malament. S ha de revisar!!!</t>
+        </is>
+      </c>
       <c r="G2" t="n">
-        <v>30.77</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>38.46</v>
+        <v>35.71</v>
       </c>
       <c r="I2" t="n">
-        <v>30.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -520,7 +528,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ESPAÑA ES ESPAÑA Y EL PUEBLO ESPAÑOL, ESPAÑA NO ES SOLAMENTE UN CAMPO DE POPULISMO POLITICO! NUESTRO DEBER ES ESTAR SIEMPRE JUNTOS CUANDO SE TRATA DE UN CASO DE ESTADO, LAS DIFERENCIAS POLITICAS SE DEJAN PARA DESPUES, DONDE SE PUEDE ANALIZAR POR QUE LA DIPLOMACIA HA FRACASADO? PERO MIENTRAS TANTO SOMOS TODOS ESPAÑA DEFENDIENDO LA INTEGRACION NACIONAL!!!!!</t>
+          <t>Com es nota que no treballeu en un hospital o un CAP... Per culpa de gent inconscient com hi ha en alguns comentaris estem com estem.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -537,7 +545,8 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Soy inglés pero mi corazón es español. Viva España ❤️🇪🇸</t>
+          <t>La intención es buena, pero la variable de contagio que determina si es verde,rojo,anar
+anjado etc.... Depende de los PCR y resultado.... Si en las zonas verdes se analizan 209 personas al azar de esa región y se hacen 200 PCR saldrá un dato. Si comemos otras 200 de otra región y se hace el test PCR saldrá otro dato.... Pero la realidad creo yo, que no es precisamente la real, jajaja, pues depende que en todos los municipios se hagan PCR a escala mayor... Si no presenta síntomas y nadie se hace PCR, pues ala.... Color verde para la señora.... Y se hacen 50 y salen 47 pues ala, premio.... Rojo.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -554,8 +563,7 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lealtad. Mi familia a dado y sigue dando Lealtad
-A ESPAÑA, VIVA Las Fuerzas Armadas ESPAÑOLAS.....</t>
+          <t>No us fa vergonya, manipular les noticies i de pas a la gent??? Esteu al darrera de una bona!!!</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -572,8 +580,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hoy Sanchez no estará viendo el desfile de las fuerzas Armadas.
-El desfile es en la plaza de la Lealtad. No va con el.</t>
+          <t>Y hablan de volver a confinar por zonas o regiones ¿Está justificado tanto pánico que nos venden?</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -590,8 +597,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nos faltan vidas para agradeceros tanto.
-España siempre 🇪🇦🇪🇦🇪🇦</t>
+          <t>Ei, ens tornarem bojos amb tant de Covid. Podeu dir algo positiu? És tot tan greu com es pinta?</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -608,7 +614,8 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Y viva nuestras fuerzas armadas!!!</t>
+          <t>Partiendo de la base que los Test PCR no son válidos, que se ha dicho hasta la saciedad y aburrimiento, en qué se basan? Me voy a hacer la ingenua... yo ya lo sé... ES TODO MENTIRA... Ahorrénse comentarios despectivos y descalificativo
+s, no entraré al trapo...</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -625,7 +632,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Porque tenemos un día de los capullos otro de los tontolhaba. Otro de los fikis otro de las magnolias siberianas. Este día nos recuerda quienes están para defendernos y defender las libertades donde no existen vivan las ffaa</t>
+          <t>No teniu rès més a fer que mirar brots? Vaig a brenar, que ho paseu bè!</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -642,7 +649,9 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Que viva mi otro Pais ESPAÑA y OLE</t>
+          <t>Actualment.....
+.
+Fernpor a la gent, posar colors vermells per donar por!.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -659,7 +668,8 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Viva España 🇪🇸🌹 y Viva El Rey 💙🇪🇸🌹 Enhorabuena 👏👏👏👏 Saludos.</t>
+          <t>Recogida de firmas presentadas al Síndic de Greuges de Catalunya, si eres miembro de una mesa electoral y no estás de acuerdo en poner en riesgo tu salud #NOAsermembremes
+a2021</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -676,7 +686,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>La Reina es magnifica 🤩</t>
+          <t>Esta pandemia parece una telenovela, cuando piensas que se ha acabando, aparece una nueva serie😳🙃😳🙃😳😏</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -693,8 +703,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Viva España🇪🇦
-Viva el Rey🇪🇦</t>
+          <t>Brotes de brócoli</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -711,7 +720,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Viva España y viva el Rey.</t>
+          <t>Toda Europa sin mascarillas y haciendo vida normal .En España no ,por qie sera?🤔🤔🤔🤔 Aaahh siiii ,al covd le gusta las fiestas de aqui y la playa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -728,7 +737,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>España es grande y tiene que seguir siendo...Las Fuerzas Armadas es nuestra seguridad</t>
+          <t>Les dades del meu poble tampoc son reals, contrastades amb les que ha anunciat l’Ajuntament del poble</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -743,11 +752,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Viva España 🇪🇸 🇪🇸🇪🇸🇪🇸🇪🇸👍😍</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -756,18 +761,45 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2F4450956008261809</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>El Chelsea, campió d'Europa
+El Chelsea, campió d'Europa
+CCMA.CAT
+El Chelsea supera el Manchester City (0-1) i es converteix en el campió d'Europa
+Un gol de Havertz a la primera part dona la segona Champions en la història de l'equip 'blue'
+CCMA.CAT
+El Chelsea supera el Manchester City (0-1) i es converteix en el campió d'Europa</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>-2.870990358419703</v>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>VIVA LA GUARDIA CIVIL 🇪🇸🇪🇸🇪🇸🇪🇸🇪🇸</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>Guardiola, sin Tito Vilanova no eres capaz, 😁
+El fue un gran entrenador, y sin tantas luces, se ganó un sitio en el corazón culé ❤️😥❤️</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>60</v>
+      </c>
+      <c r="H17" t="n">
+        <v>28</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -779,7 +811,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Viva Espańa. Vivan las fuerzas militares.</t>
+          <t>M és indiferent... però sap greu pel Pep.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -796,7 +828,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Viva España !!!!</t>
+          <t>Jo volia que guanyés en Pep.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -813,7 +845,7 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Viva España 🇪🇦🇪🇦🇪🇦 mi maravilloso pais</t>
+          <t>Auuu al carrer Manchester City 💪</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -830,7 +862,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Nuestras fuerzas armadas se merecen el mejor de nuestro cariño, aellos les debemos todo</t>
+          <t>El meacolonia vuelva a fracasar millones y millones gastados para no volver a ganar la Champions</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -847,7 +879,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>🇪🇸🇪🇸🇪🇸🇪🇸🇪🇸ESPAÑA NO SE ROMPE🇪🇸🇪🇸🇪🇸🇪🇸🇪🇸</t>
+          <t>De que sirve el Tiki Taka ,mucha posesión Para que ,,????.... Para que ...✅👍👍👍👋👋👋👋👋Pepppp te an cogido la cartera 💼</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -864,7 +896,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>No digáis que no está bonito el desfile de las fuerzas armadas</t>
+          <t>Tuchel le ha ganado en la pizarra al perdedor de Guardiola. Le ha ganado los tres partidos que han jugado. Guardiola, muy sobrevalorado.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -881,7 +913,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Viva el Rey</t>
+          <t>Paco Pecino Navas</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -898,7 +930,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>VIVA EL REY. VIVA ESPAÑA</t>
+          <t>El Manchester le ha dado un baño. Pero con un fútbol miserable han ganado sin merecerlo</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -915,7 +947,8 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Viva España 🇪🇦🇪🇦🇪🇦🇪🇦🇪🇦🇪🇦</t>
+          <t>La pizarra de Joselito está obsoleta jajajajajaa....
+repaso táctico de Tuchel al "inventor del fútbol"😂😂😂</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -932,7 +965,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Buenos Días a Todos desde Galicia Pontevedra</t>
+          <t>lastima, Yo quería que al Pep Guardiola le canten ,,🎵que Viiiiva España 🎶</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -947,11 +980,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Viva las fuerzas armadas 🇪🇦🇪🇦🇪🇦</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -962,193 +991,111 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2F10165105009135401</t>
+          <t>2F4450565478300862</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Francisco Martín es un profesor de matemáticas jubilado con una pasión: el estudio del arte para explicar algunos de los conceptos más difíciles de las matemáticas
-¿Es posible aprender matemáticas a través el arte? 👇
-Francisco Martín es un profesor de matemáticas jubilado con una pasión: el estudio del arte para explicar algunos de los conceptos más difíciles de las matemáticas
-¿Es posible aprender matemáticas a través el arte? 👇
-RTVE.ES
-¿Es posible aprender matemáticas a través el arte? - RTVE.es
-RTVE.ES
-¿Es posible aprender matemáticas a través el arte? - RTVE.es</t>
+          <t>Més de 500 persones protesten contra el parc eòlic marí del cap de Creus, el projecte de molins a l'Albera i el de panells solars entre l'Empordà i el Gironès
+Més de 500 persones protesten contra el parc eòlic marí del cap de Creus, el projecte de molins a l'Albera i el de panells solars entre l'Empordà i el Gironès
+CCMA.CAT
+Protesta a l'Escala contra projectes d'energies renovables que afectaran el paisatge
+Més de 500 persones protesten contra el parc eòlic marí del cap de Creus, el projecte de molins a l'Albera i el de panells solars entre l'Empordà i el Gironès
+CCMA.CAT
+Protesta a l'Escala contra projectes d'energies renovables que afectaran el paisatge</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.634391228099753</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+        <v>-4.041783959140515</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>El parc marí hauria de ser fàcil de solucionar. Més endins i prou (i també més car, perque és més profund.
+#NIMBY</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>30.77</v>
+        <v>59.46</v>
       </c>
       <c r="H29" t="n">
-        <v>38.46</v>
+        <v>24.32</v>
       </c>
       <c r="I29" t="n">
-        <v>30.77</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2F10165104983990401</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>La primera Semifinal de The Dancer ha comenzado por todo lo alto con el opening que han protagonizado los capitanes junto a sus equipos. Ha sido una maravillosa forma de presentar a los concursantes y de iniciar esta gala donde hemos podido ver bailar a los capitanes juntos por primera vez.
-La primera Semifinal de The Dancer ha comenzado por todo lo alto con el opening que han protagonizado los capitanes junto a sus equipos. Ha sido una maravillosa forma de presentar a los concursantes y de iniciar esta gala donde hemos podido ver bailar a los capitanes juntos por primera vez.
-RTVE.ES
-Así han sido los primeros retos de 'The Dancer'
-RTVE.ES
-Así han sido los primeros retos de 'The Dancer'</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>2.657143590413259</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="n">
-        <v>30.77</v>
-      </c>
-      <c r="H30" t="n">
-        <v>38.46</v>
-      </c>
-      <c r="I30" t="n">
-        <v>30.77</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Et alors...?, que collons fem?, no sabem ni lo que volem..., que complicat tot hostia..</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2F10165104954755401</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>13 homicidios verificándose, treinta heridos, una amenaza de bomba, ataques a equipos médicos, incendios¿ Es el balance que dejan las protestas en Cali...La tensión ha vuelto a vivirse en varios puntos del… Más país...Las autoridades investigan vídeos donde personas vestidas de civiles disparan a la gente delante de la policía...La prensa también denuncia la vulneración del derecho a informar...
-13 homicidios verificándose, treinta heridos, una amenaza de bomba, ataques a equipos médicos, incendios¿ Es el balance que dejan las protestas en Cali...La tensión ha vuelto a vivirse en varios puntos delMás país...Las autoridades investigan vídeos donde personas vestidas de civiles disparan a la gente delante de la policía...La prensa también denuncia la vulneración del derecho a informar...
-RTVE.ES
-Sigue la presión en las calles de Colombia mientras las negociaciones entre gobierno y el comité de paro continuan estancadas- RTVE.es
-RTVE.ES
-Sigue la presión en las calles de Colombia mientras las negociaciones entre gobierno y el comité de paro continuan estancadas- RTVE.es</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>-2.49635989845878</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="n">
-        <v>30.77</v>
-      </c>
-      <c r="H31" t="n">
-        <v>38.46</v>
-      </c>
-      <c r="I31" t="n">
-        <v>30.77</v>
-      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Doncs a les terres del sud fa molts anys que aguantem molins i també tenim paisatges molt bonics.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2F10165104915485401</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Una de las cuestiones más difíciles y elusivas para la neurociencia es descifrar la consciencia y su mera definición ya plantea un desafío. El yo, la percepción de la realidad, el libre albedrío… ¿Puede la ciencia responder qué hay de verdad en ellos?
-El Cazador de Cerebros, el lunes a las 20h en La 2 de TVE
-Una de las cuestiones más difíciles y elusivas para la neurociencia es descifrar la consciencia y su mera definición ya plantea un desafío. El yo, la percepción de la realidad, el libre albedrío… ¿Puede la ciencia responder qué hay de verdad en ellos?
-El Cazador de Cerebros, el lunes a las 20h en La 2 de TVE
-RTVE.ES
-Neurociencia: ¿Qué es la consciencia?
-RTVE.ES
-Neurociencia: ¿Qué es la consciencia?</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>-0.04466326138411952</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="n">
-        <v>30.77</v>
-      </c>
-      <c r="H32" t="n">
-        <v>38.46</v>
-      </c>
-      <c r="I32" t="n">
-        <v>30.77</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Y todo para que tengan energia los coches eléctricos de Barcelona ,??,,,No toca el aire en el Montseny + Montserrart + Sant Llorenc d´Amunt i la Mola ??</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2F10165104885760401</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Nueva jornada de protestas, disturbios y enfrentamientos con la policía en Colombia, cuando se cumple un mes del estallido social en el país. Hay al menos 4 fallecidos
-Nueva jornada de protestas, disturbios y enfrentamientos con la policía en Colombia, cuando se cumple un mes del estallido social en el país. Hay al menos 4 fallecidos
-RTVE.ES
-Iván Duque despliega al Ejército en Cali tras una nueva jornada de protestas en Colombia
-RTVE.ES
-Iván Duque despliega al Ejército en Cali tras una nueva jornada de protestas en Colombia</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>2.319961456375227</v>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="H33" t="n">
-        <v>37.04</v>
-      </c>
-      <c r="I33" t="n">
-        <v>29.63</v>
-      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>En què quedem? Energies renovables o la cultura del no?</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1160,12 +1107,348 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>EJÉRCITO no policía, dejen de blanquear al gobierno represor de Duque</t>
+          <t>No ho entenc...volem o no volem ser sostenibles i respectar el medi ambient?
+Volem centrals nuclears i hidroelèctrique
+s?
+Va home va!!!!</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Justament per seguir disfrutant de paisatges fan falta les energies renovables.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>I les comarques tarragonines???
+Que hauríem de fer?? Amb les dues centrals nuclears😔😔😔</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Panells solars a les teulades de les ciutats ja!</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Molta sort. Ens han tret vistes de bosc i muntanya, ara només faltava el mar.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Cuanto tiempo libre tiene la gente 🤣🤣🤣</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Tots els que no vulguin ni molins ni plaques que els tallin el subministrament
+i que s’autoprodueixi
+n l’energia, ja veureu com s’acaba la discusió.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2F4450676348289775</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>El noi ha sofert ferides lleus a la mà per una puntada de peu i ha rebut el suport de l'Observatori contra l'Homofòbia i de les institucions
+El noi ha sofert ferides lleus a la mà per una puntada de peu i ha rebut el suport de l'Observatori contra l'Homofòbia i de les institucions
+CCMA.CAT
+Denuncien un atac homòfob a Barcelona comès per un grup d'homes
+El noi ha sofert ferides lleus a la mà per una puntada de peu i ha rebut el suport de l'Observatori contra l'Homofòbia i de les institucions
+CCMA.CAT
+Denuncien un atac homòfob a Barcelona comès per un grup d'homes</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>-11.1070807900079</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Madre mía, hay quien ha desenterrado el garrote y las pieles antes de salir de la cueva!!</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>53.66</v>
+      </c>
+      <c r="H42" t="n">
+        <v>29.27</v>
+      </c>
+      <c r="I42" t="n">
+        <v>17.07</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Orangutans....</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Angela Rodriguez</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>En fin..</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2F4449366608420749</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Diverses iniciatives intenten evitar que es llenci tant de menjar a les botigues i també a casa
+Diverses iniciatives intenten evitar que es llenci tant de menjar a les botigues i també a casa
+CCMA.CAT
+Dues apps i un sistema per reduir el malbaratament alimentari pel bé del planeta
+Diverses iniciatives intenten evitar que es llenci tant de menjar a les botigues i també a casa
+CCMA.CAT
+Dues apps i un sistema per reduir el malbaratament alimentari pel bé del planeta</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>-11.11970852960756</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>jo he fet servir la "to good to go" i fins ara prou bé</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>55.81</v>
+      </c>
+      <c r="H47" t="n">
+        <v>27.91</v>
+      </c>
+      <c r="I47" t="n">
+        <v>16.28</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>et donen les sobres de dies🤬😡😠😠😠😡😡</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2F4446054665418610</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>“Entrar a la Casa Navàs és fer un salt en el temps”. És l’únic edifici modernista de tot Europa que conserva l’interior original: els vitralls, els mobles i tots els elements decoratius es mantenen gairebé… Más intactes. Construïda el 1908 per Lluís Domènech i Montaner a la plaça Mercadal de Reus, aquest estiu se n’ha reconstruït la façana original, malmesa per una bomba durant la Guerra Civil. https://bit.ly/3evpfq9 #Play324
+“Entrar a la Casa Navàs és fer un salt en el temps”. És l’únic edifici modernista de tot Europa que conserva l’interior original: els vitralls, els mobles i tots els elements decoratius es mantenen gairebéMás intactes. Construïda el 1908 per Lluís Domènech i Montaner a la plaça Mercadal de Reus, aquest estiu se n’ha reconstruït la façana original, malmesa per una bomba durant la Guerra Civil. https://bit.ly/3evpfq9 #Play324
+Reproducir vídeo</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>-14.2762326839316</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Result_df/df_postss.xlsx
+++ b/Result_df/df_postss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,20 +456,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Comments</t>
+          <t>Neg_com</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Neg_com</t>
+          <t>Neu_com</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Neu_com</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Pos_com</t>
         </is>
@@ -479,42 +474,29 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2F3544655432225209</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1.399308698972037e+18</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Consulta el mapa interactiu del risc de brot de Covid-19, municipi a municipi
-Consulta el mapa interactiu del risc de brot de Covid-19, municipi a municipi
-CCMA.CAT
-Índex de risc de brot per municipis Covid-19
-Consulta l'Índex EPG per municipis i les variables que determinen el risc de brot Coronavirus Covid-19. Segueix tota la informació al 324
-CCMA.CAT
-Índex de risc de brot per municipis Covid-19</t>
+          <t>Mostopapi si no sagere inventat el sexe https://t.co/yCHlSvGs2r</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1.784237350377631</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Poder q recinte els mapes bé. On es el municipi de Les Oluges? Q són ha sumat a Cervesa? Això està malament. S ha de revisar!!!</t>
-        </is>
+        <v>-0.2737090108223259</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.29000000000001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>35.71</v>
-      </c>
-      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -522,931 +504,1477 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Com es nota que no treballeu en un hospital o un CAP... Per culpa de gent inconscient com hi ha en alguns comentaris estem com estem.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>1.399273598746046e+18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AT_USER AT_USER AT_USER La gente va a querer más a mostopapi de lo q cualquier familiar te ha querido a ti</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6852603802096073</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La intención es buena, pero la variable de contagio que determina si es verde,rojo,anar
-anjado etc.... Depende de los PCR y resultado.... Si en las zonas verdes se analizan 209 personas al azar de esa región y se hacen 200 PCR saldrá un dato. Si comemos otras 200 de otra región y se hace el test PCR saldrá otro dato.... Pero la realidad creo yo, que no es precisamente la real, jajaja, pues depende que en todos los municipios se hagan PCR a escala mayor... Si no presenta síntomas y nadie se hace PCR, pues ala.... Color verde para la señora.... Y se hacen 50 y salen 47 pues ala, premio.... Rojo.</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>1.39923663629099e+18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>AT_USER Es mostopapi</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>No us fa vergonya, manipular les noticies i de pas a la gent??? Esteu al darrera de una bona!!!</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>1.39913355492839e+18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mostopapi hizo un habitos con yoli (!!!)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.3803770529614565</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Y hablan de volver a confinar por zonas o regiones ¿Está justificado tanto pánico que nos venden?</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>1.399130243185746e+18</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AT_USER es mostopapi?</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ei, ens tornarem bojos amb tant de Covid. Podeu dir algo positiu? És tot tan greu com es pinta?</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>1.399127772778439e+18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ojo al #hábitos de AT_USER con AT_USER
+La maestra del "six one nine".
+¿Queréis que vuestro cabello luzca… https://t.co/kmIbvGg95g</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>-2.144814943553796</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Partiendo de la base que los Test PCR no son válidos, que se ha dicho hasta la saciedad y aburrimiento, en qué se basan? Me voy a hacer la ingenua... yo ya lo sé... ES TODO MENTIRA... Ahorrénse comentarios despectivos y descalificativo
-s, no entraré al trapo...</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>1.399122256735973e+18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>AT_USER mosto
+Vas a meterte en una velada de ibai?</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.5294126321219443</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>No teniu rès més a fer que mirar brots? Vaig a brenar, que ho paseu bè!</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>1.399122062401286e+18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>AT_USER se puede decir que yoli ex de mario es casi clavada a mia Khalifa</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7032450609940636</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Actualment.....
-.
-Fernpor a la gent, posar colors vermells per donar por!.</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>1.399121351928058e+18</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>AT_USER AT_USER Eres de los típicos que apesta a esmegma y apoya a mostopapi</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.737051996900189</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Recogida de firmas presentadas al Síndic de Greuges de Catalunya, si eres miembro de una mesa electoral y no estás de acuerdo en poner en riesgo tu salud #NOAsermembremes
-a2021</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>1.399110405889434e+18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AT_USER Mostopapi:</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Esta pandemia parece una telenovela, cuando piensas que se ha acabando, aparece una nueva serie😳🙃😳🙃😳😏</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>1.399107939353481e+18</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Literalmente mostopapi i fortnite cada dia se van desapareciendo mas jajajajaja</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1938332828024394</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Brotes de brócoli</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>1.3990997771665e+18</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Que decís del canal de mostopapi?</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.2437772561115373</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Toda Europa sin mascarillas y haciendo vida normal .En España no ,por qie sera?🤔🤔🤔🤔 Aaahh siiii ,al covd le gusta las fiestas de aqui y la playa</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>1.399098518267105e+18</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Creo que me encontré a mostopapi en Nässica</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.1365997968499191</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Les dades del meu poble tampoc son reals, contrastades amb les que ha anunciat l’Ajuntament del poble</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>1.39908663258266e+18</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Tenía asumido ser viejuno y la brecha generacional y tal pero he oído a mostopapi decir "mis entrevistas no son nor… https://t.co/pNt776rCNg</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1.835660708893654</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>1.399085100101427e+18</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>AT_USER Es tu taladradora AT_USER  😂</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.3315868887920245</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2F4450956008261809</t>
-        </is>
+      <c r="B17" t="n">
+        <v>1.399081831971144e+18</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>El Chelsea, campió d'Europa
-El Chelsea, campió d'Europa
-CCMA.CAT
-El Chelsea supera el Manchester City (0-1) i es converteix en el campió d'Europa
-Un gol de Havertz a la primera part dona la segona Champions en la història de l'equip 'blue'
-CCMA.CAT
-El Chelsea supera el Manchester City (0-1) i es converteix en el campió d'Europa</t>
+          <t>AT_USER AT_USER
+mostopapi
+mostopapi</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-2.870990358419703</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Guardiola, sin Tito Vilanova no eres capaz, 😁
-El fue un gran entrenador, y sin tantas luces, se ganó un sitio en el corazón culé ❤️😥❤️</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>28</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>M és indiferent... però sap greu pel Pep.</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>1.399069749561151e+18</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>bua bua que cringe mostopapi trayendo a la pava esa shajhsdjgasdga</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Jo volia que guanyés en Pep.</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>1.399068219609059e+18</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AT_USER AT_USER Mostopapi momento AT_USER</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.737051996900189</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Auuu al carrer Manchester City 💪</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>1.39905527256438e+18</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>AT_USER AT_USER igual cuando se entere de que sigues al creador de este meme (yo) igual te hace una obra a p… https://t.co/aXvjquU0eP</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3.355326082896796</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>El meacolonia vuelva a fracasar millones y millones gastados para no volver a ganar la Champions</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>1.399052575127839e+18</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>me pone nerviosa el “empezemooos” de AT_USER esqe literalmente me lo salto</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.737051996900189</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>De que sirve el Tiki Taka ,mucha posesión Para que ,,????.... Para que ...✅👍👍👍👋👋👋👋👋Pepppp te an cogido la cartera 💼</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>1.399010918894289e+18</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ojala en la proxima velada un combate sea mostopapi vs el feminismo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.4932747407886516</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Tuchel le ha ganado en la pizarra al perdedor de Guardiola. Le ha ganado los tres partidos que han jugado. Guardiola, muy sobrevalorado.</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>1.399009302338286e+18</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>AT_USER Mostopapi?</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Paco Pecino Navas</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>1.399006975183266e+18</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>AT_USER yo cuando 
+yo cuando mostopapi dice teta:</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.250960442486168</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>El Manchester le ha dado un baño. Pero con un fútbol miserable han ganado sin merecerlo</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>1.39898961581466e+18</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>AT_USER Puedes mirar los gameplays de mostopapi</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.5952396674453397</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>La pizarra de Joselito está obsoleta jajajajajaa....
-repaso táctico de Tuchel al "inventor del fútbol"😂😂😂</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>1.398979440026259e+18</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>AT_USER AT_USER buah imagina defender a mostopapi</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6492423642197017</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>lastima, Yo quería que al Pep Guardiola le canten ,,🎵que Viiiiva España 🎶</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>1.398972001155486e+18</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mostopapi proxeneta</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>1.398965513615782e+18</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>nadie:
+Mostopapi: https://t.co/MgoXQHIfIQ</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.02473406935197</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2F4450565478300862</t>
-        </is>
+      <c r="B29" t="n">
+        <v>1.398947775472079e+18</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Més de 500 persones protesten contra el parc eòlic marí del cap de Creus, el projecte de molins a l'Albera i el de panells solars entre l'Empordà i el Gironès
-Més de 500 persones protesten contra el parc eòlic marí del cap de Creus, el projecte de molins a l'Albera i el de panells solars entre l'Empordà i el Gironès
-CCMA.CAT
-Protesta a l'Escala contra projectes d'energies renovables que afectaran el paisatge
-Més de 500 persones protesten contra el parc eòlic marí del cap de Creus, el projecte de molins a l'Albera i el de panells solars entre l'Empordà i el Gironès
-CCMA.CAT
-Protesta a l'Escala contra projectes d'energies renovables que afectaran el paisatge</t>
+          <t>Mostopapi hablando con degenerados, en especial este, que le pregunta a su madre sobre cómo tiene el nepe https://t.co/x2tr19KDtL</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-4.041783959140515</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>El parc marí hauria de ser fàcil de solucionar. Més endins i prou (i també més car, perque és més profund.
-#NIMBY</t>
-        </is>
+        <v>0.4779615004573254</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>59.46</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>24.32</v>
-      </c>
-      <c r="I29" t="n">
-        <v>16.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Et alors...?, que collons fem?, no sabem ni lo que volem..., que complicat tot hostia..</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>1.398936655021683e+18</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>El perro de mostopapi https://t.co/uxCrgkz24u</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.513908445585979</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Doncs a les terres del sud fa molts anys que aguantem molins i també tenim paisatges molt bonics.</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>1.398934285177e+18</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>AT_USER AT_USER No hablo de ninguna persona en concreto, para esa comunidad la empatía sólo existe si pu… https://t.co/AjwiaZSikQ</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1.102437097990552</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Y todo para que tengan energia los coches eléctricos de Barcelona ,??,,,No toca el aire en el Montseny + Montserrart + Sant Llorenc d´Amunt i la Mola ??</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>1.398884050509644e+18</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>AT_USER AT_USER AT_USER AT_USER Ve el WildProject con Mostopapi.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5438818485618753</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>En què quedem? Energies renovables o la cultura del no?</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>1.398879400523882e+18</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>AT_USER AT_USER AT_USER AT_USER Royal Rumble ?</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6492423642197017</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>No ho entenc...volem o no volem ser sostenibles i respectar el medi ambient?
-Volem centrals nuclears i hidroelèctrique
-s?
-Va home va!!!!</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>1.398868281457529e+18</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>AT_USER Que maquina como juega Mostopapi</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>-1.142517105008353</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Justament per seguir disfrutant de paisatges fan falta les energies renovables.</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>1.398830348541235e+18</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Puede mostopapi dejar d hablar d su polla por favor tienes 30 años callate</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>5.401044163496771</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>I les comarques tarragonines???
-Que hauríem de fer?? Amb les dues centrals nuclears😔😔😔</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>1.398826448295715e+18</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Imagina un medio con Mostopapi y Casemiro 🥰 https://t.co/kLwKVH5BBS</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.09451192411346743</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Panells solars a les teulades de les ciutats ja!</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>1.398822533168779e+18</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>AT_USER Mostopapi</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Molta sort. Ens han tret vistes de bosc i muntanya, ara només faltava el mar.</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>1.398819106950992e+18</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Grande AT_USER https://t.co/YcWDpO4BLe</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.3615602917679208</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Cuanto tiempo libre tiene la gente 🤣🤣🤣</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>1.398801581672444e+18</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>mostopapi https://t.co/57ajFE98RW</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Tots els que no vulguin ni molins ni plaques que els tallin el subministrament
-i que s’autoprodueixi
-n l’energia, ja veureu com s’acaba la discusió.</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>1.398797171894411e+18</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Que grande el Mostopapi campeón de la champions https://t.co/wuSU2HOH7m</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.3615602917679208</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>1.39878671327164e+18</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>AT_USER Proxenetismo es alguien que lucra a base de vender a una persona sexualmente, el vídeo de Mostopapi… https://t.co/lbhPUNp3Md</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.3582213767508421</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2F4450676348289775</t>
-        </is>
+      <c r="B42" t="n">
+        <v>1.398781994302161e+18</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>El noi ha sofert ferides lleus a la mà per una puntada de peu i ha rebut el suport de l'Observatori contra l'Homofòbia i de les institucions
-El noi ha sofert ferides lleus a la mà per una puntada de peu i ha rebut el suport de l'Observatori contra l'Homofòbia i de les institucions
-CCMA.CAT
-Denuncien un atac homòfob a Barcelona comès per un grup d'homes
-El noi ha sofert ferides lleus a la mà per una puntada de peu i ha rebut el suport de l'Observatori contra l'Homofòbia i de les institucions
-CCMA.CAT
-Denuncien un atac homòfob a Barcelona comès per un grup d'homes</t>
+          <t>y orgullosa de que él y yo sigamos a una persona que no apoye a mostopapi y a dalas, anda ve a participar a sorteos… https://t.co/2s2CuhRsrs</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-11.1070807900079</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Madre mía, hay quien ha desenterrado el garrote y las pieles antes de salir de la cueva!!</t>
-        </is>
+        <v>1.347746634291179</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>53.66</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>29.27</v>
-      </c>
-      <c r="I42" t="n">
-        <v>17.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Orangutans....</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>1.398781315676262e+18</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>AT_USER Eres el puto amo. Asin d claro, ole tú y fiva tu novia. Guapos</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>4.986443005925007</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Angela Rodriguez</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>1.398780292597494e+18</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>AT_USER AT_USER AT_USER Que Abby es otra cristalita con lo de Mostopapi, Dalas, etc.
+De tal streamer, tal… https://t.co/o2M07PEteG</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1.388164057714662</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>En fin..</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>1.398770806700876e+18</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER Necesitamos a un wasted de entrenador haciendo como q s… https://t.co/Npovp0ERyl</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.6688940061496261</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>1.398768583962935e+18</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>que dice aro de mostopapi sdfhdgsfjgfaskjgfdskjdgsdfhdh</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.513908445585979</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2F4449366608420749</t>
-        </is>
+      <c r="B47" t="n">
+        <v>1.398765981900677e+18</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Diverses iniciatives intenten evitar que es llenci tant de menjar a les botigues i també a casa
-Diverses iniciatives intenten evitar que es llenci tant de menjar a les botigues i també a casa
-CCMA.CAT
-Dues apps i un sistema per reduir el malbaratament alimentari pel bé del planeta
-Diverses iniciatives intenten evitar que es llenci tant de menjar a les botigues i també a casa
-CCMA.CAT
-Dues apps i un sistema per reduir el malbaratament alimentari pel bé del planeta</t>
+          <t>AT_USER que grande mostopapi</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-11.11970852960756</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>jo he fet servir la "to good to go" i fins ara prou bé</t>
-        </is>
+        <v>0.3615602917679208</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>55.81</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>27.91</v>
-      </c>
-      <c r="I47" t="n">
-        <v>16.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>et donen les sobres de dies🤬😡😠😠😠😡😡</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>1.398761816004702e+18</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>AT_USER wtf AT_USER</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.0439048163402436</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>1.398747818098057e+18</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>sigo esperando el trío de mostopapi garazi y fati AT_USER</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.3176554754276771</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2F4446054665418610</t>
-        </is>
+      <c r="B50" t="n">
+        <v>1.39874700645838e+18</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>“Entrar a la Casa Navàs és fer un salt en el temps”. És l’únic edifici modernista de tot Europa que conserva l’interior original: els vitralls, els mobles i tots els elements decoratius es mantenen gairebé… Más intactes. Construïda el 1908 per Lluís Domènech i Montaner a la plaça Mercadal de Reus, aquest estiu se n’ha reconstruït la façana original, malmesa per una bomba durant la Guerra Civil. https://bit.ly/3evpfq9 #Play324
-“Entrar a la Casa Navàs és fer un salt en el temps”. És l’únic edifici modernista de tot Europa que conserva l’interior original: els vitralls, els mobles i tots els elements decoratius es mantenen gairebéMás intactes. Construïda el 1908 per Lluís Domènech i Montaner a la plaça Mercadal de Reus, aquest estiu se n’ha reconstruït la façana original, malmesa per una bomba durant la Guerra Civil. https://bit.ly/3evpfq9 #Play324
-Reproducir vídeo</t>
+          <t>AT_USER mostopapi</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-14.2762326839316</v>
-      </c>
-      <c r="F50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1.398745875166511e+18</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>AT_USER eres tu? https://t.co/jVz3vhI6h4</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result_df/df_postss.xlsx
+++ b/Result_df/df_postss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,20 +490,20 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.397980001161601e+18</v>
+        <v>1.399735901618676e+18</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AT_USER Haciendo gestiones...</t>
+          <t>AT_USER haha jonathan you are banging mostopapi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.2872256228337421</v>
+        <v>-0.598635256446478</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -523,20 +523,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.397976717306876e+18</v>
+        <v>1.39972896705835e+18</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AT_USER Espabila con Lis</t>
+          <t>Q mostopapi ha hecho un hábitos con la asquerosa de la ex de mario
+Q hace dandole fama a esa podrida</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.752272378191661</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -556,20 +557,20 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.397172544885645e+18</v>
+        <v>1.39972230554735e+18</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lo de pasar rapido los audios de wasa es lo mejor</t>
+          <t>AT_USER Estas preparado para el habitos con mostopapi?</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.8790333783564991</v>
+        <v>-0.737051996900189</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -589,20 +590,20 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.396257002800693e+18</v>
+        <v>1.399722024516399e+18</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tocara ir a ver saww</t>
+          <t>AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER https://t.co/L4c62PsDkA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.137231677157825</v>
+        <v>0.6492423642197017</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -622,20 +623,20 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.396230674542121e+18</v>
+        <v>1.399721444003693e+18</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>De lo cos</t>
+          <t>AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER https://t.co/47TANT6qrt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1.653342728774344</v>
+        <v>0.6492423642197017</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -655,20 +656,20 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.394666359141847e+18</v>
+        <v>1.399720783744803e+18</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AT_USER JAJAJAJAJAJAJAJAJAJAJAJAJAAJAJAJAJAJAJAJAJAJAJAJAJAJA</t>
+          <t>Cuántas veces habéis cancelado ya al Grefg ese? Pa qué lo hacéis si se os olvida a los 4 días? En qué quedó la canc… https://t.co/oMyfI855W0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-2.218651514604828</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -688,20 +689,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.393950120664879e+18</v>
+        <v>1.399719960201552e+18</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Regalando dinero a la urban🤑</t>
+          <t>Contraataque de twich ASMR a los hot tubs, sobar los microfonos... Mostopapi adelantado por la derecha</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-1.02473406935197</v>
+        <v>1.416724213713826</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -721,20 +722,20 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.393305669688775e+18</v>
+        <v>1.399706881510236e+18</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AT_USER 🌚👌🏻</t>
+          <t>AT_USER mostopapi youtuber de toda la vida?</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.7809568132404325</v>
+        <v>-0.1494140261201318</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -754,20 +755,21 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.393300041851408e+18</v>
+        <v>1.399706298997002e+18</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>He convertido a mi hermana en una posadora fitness 💁🏻‍♂️</t>
+          <t>Dato curioso:
+No es para justificar nada ni mucho menos pero... Os habéis fijado que últimamente los grandes youtub… https://t.co/VytJuVCLo6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.7509834102645365</v>
+        <v>0.005291538171256827</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -787,20 +789,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.392957179645334e+18</v>
+        <v>1.399705586535735e+18</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER Soy yo capullo 🥲</t>
+          <t>AT_USER Mujer: pene vagina
+Mostopapi: *glup*
+Niños de 13 años:</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.777090163428478</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -820,11 +824,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.392953588486484e+18</v>
+        <v>1.399687555214459e+18</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER</t>
+          <t>AT_USER AT_USER Ejem ejem mostopapi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -853,20 +857,20 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.392244774170681e+18</v>
+        <v>1.399681109894574e+18</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Chiklin</t>
+          <t>mostopapi cuando salga sexo 2 https://t.co/0SlFkfcfos</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.6936045046476975</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -886,20 +890,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.391166456168059e+18</v>
+        <v>1.399665997532078e+18</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Homemade fmUab</t>
+          <t>MUCHAS GRACIAS AT_USER 😍
+Es el MEJOR ✨ día de mi VIDA. Pronto haremos un hábitos tu y yo😎🥵🤭
+Es INDESCRPTIBLE 😱 e… https://t.co/RHGsFbVyJI</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.662528096930197</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -919,20 +925,20 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.390557884975653e+18</v>
+        <v>1.399659729878716e+18</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Madrugaciones</t>
+          <t>Cuando parece que no puede ser más imbécil, Mostopapi te demuestra que si puede y que estábamos equivocados. https://t.co/WTbFVYe57Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1.468094515427772</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -952,11 +958,12 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.390060154360586e+18</v>
+        <v>1.399656284509643e+18</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AT_USER Pillado 🌚🤌🏻</t>
+          <t>Un año de universidad: Sobre 1000€
+Un año seguido por Mostopapi: 1200€ y ganarte el status de pajero supremo.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -965,7 +972,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.737051996900189</v>
+        <v>-1.807293319241956</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -985,20 +992,21 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.389260722656457e+18</v>
+        <v>1.399655874013143e+18</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AT_USER https://t.co/RuyG0gL9eX</t>
+          <t>Comprarse la entrada del primavera: mentalidad de pobre
+Esperar a que sortee una mostopapi: mentalidad de tiburón</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-3.333039390911592</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1018,20 +1026,20 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.389260171722072e+18</v>
+        <v>1.399648158800658e+18</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AT_USER Te dije que te callaras 👍🏻</t>
+          <t>AT_USER AT_USER mostopapi, para empezar</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-2.616621098808731</v>
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1051,20 +1059,20 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.388975692545724e+18</v>
+        <v>1.399563450263736e+18</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AT_USER 5€?</t>
+          <t>no le veo la gracia a los videos d mostopapi jsjsa hernan se duerme en vivo</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.0439048163402436</v>
+        <v>5.84254243795721</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1084,11 +1092,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.388964723392135e+18</v>
+        <v>1.399513599467573e+18</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AT_USER Callate un poco</t>
+          <t>AT_USER Aunq mostopapi tienw sida</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1117,20 +1125,20 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.388096505559622e+18</v>
+        <v>1.399507040658145e+18</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mis ojos van por caminos separados en las fotos xd</t>
+          <t>100 pavos para que mostopapi te tenga muted https://t.co/fRKWnCu55g</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1.120066456607234</v>
+        <v>-0.449369924448408</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1150,20 +1158,20 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.388096414211838e+18</v>
+        <v>1.399503069398852e+18</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>No se puede salir peor</t>
+          <t>oye AT_USER hazte un video con Hashim Thaçi, primer presidente de Kosovo tras la independecia e imputado por cri… https://t.co/FfgCX2fDoJ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-1.486442344172787</v>
+        <v>1.879720087274797</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1183,20 +1191,20 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.387909008305136e+18</v>
+        <v>1.399499650781045e+18</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AT_USER 🤟🏻😔🤟🏻</t>
+          <t>AT_USER AT_USER Q va me referia a mostopapi</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-2.211155990700567</v>
+        <v>0.1198297320977574</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1216,20 +1224,20 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.387902102945534e+18</v>
+        <v>1.39948515584528e+18</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Quiero comer como un cerdo pero toca definir :(</t>
+          <t>AT_USER AT_USER Willyrex y mostopapi 😍</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-11.4775637562015</v>
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1249,11 +1257,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.387495857059254e+18</v>
+        <v>1.399484475424268e+18</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AT_USER el tt noseke ahjahja</t>
+          <t>100 euros o mes porque te siga Mostopapi , é o proxeneta mais barato da historia https://t.co/Z63QpsgYu8</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1262,7 +1270,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.4421408025170406</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1282,20 +1290,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.387490031603003e+18</v>
+        <v>1.399482560527442e+18</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AT_USER Hoy, no fallamos papifabri😛</t>
+          <t>-¿Papá me das 100€ para material escolar?
+-Tu también has visto lo de Mostopapi eh
+-Sí https://t.co/NG3YHddyhK</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.2643965433142731</v>
+        <v>-2.250973714902479</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1315,20 +1325,20 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.387488811488268e+18</v>
+        <v>1.399471026703057e+18</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>El viernes orleamos✌🏻</t>
+          <t>AT_USER AT_USER AT_USER</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.546320892343985</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -1348,20 +1358,21 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.386135208244785e+18</v>
+        <v>1.399467459720225e+18</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AT_USER Tremenda F</t>
+          <t>https://t.co/0C9URCuLfC
+mostopapi era un principiante a su lado, a mi lo de este canal un dia me lo tienen que expl… https://t.co/0AVpI8zl9c</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.3615602917679208</v>
+        <v>2.615318595547004</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1381,20 +1392,20 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.386126225974993e+18</v>
+        <v>1.399466123138114e+18</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A la mierda el horario 🤗</t>
+          <t>Como molaría un hábitos con AT_USER AT_USER 🤔</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-2.110092760520375</v>
+        <v>0</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1414,20 +1425,20 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.385373695812768e+18</v>
+        <v>1.399463091193233e+18</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AT_USER 🤟🏻😔🤟🏻</t>
+          <t>AT_USER Puto mostopapi siempre liándola</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-2.211155990700567</v>
+        <v>-0.006164488357396644</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1447,20 +1458,20 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.38537334787838e+18</v>
+        <v>1.399458315944579e+18</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AT_USER https://t.co/JqF119gaLZ</t>
+          <t>¿Qué leyes INCUMPLE el SORTEO de MOSTOPAPI e ITRADEIT? Feat. AT_USER y Deso... https://t.co/nyM5EUvp0f a través de AT_USER</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-1.894861009258642</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1480,20 +1491,21 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.384819462327652e+18</v>
+        <v>1.399454229467697e+18</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AT_USER Me tocara hacerte carrito en todo, nada nuevo 🤡</t>
+          <t>mostopapi
+mostopapi cuando salga sexo 2 https://t.co/c4xOrvODsK</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-0.2801815253279433</v>
+        <v>0.6936045046476975</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -1513,11 +1525,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.38425262739583e+18</v>
+        <v>1.399444678852948e+18</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AT_USER Gracias precioso 😚😚</t>
+          <t>AT_USER AT_USER A ver cómo cojones me mantengo sin comida para las próximas 3 semanas</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1526,7 +1538,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.763541933749813</v>
+        <v>0.8234325000537276</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -1546,11 +1558,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.384248847325561e+18</v>
+        <v>1.399444208545677e+18</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A ver todas las pelis d marvel prq n tengo na mejor q hacer 🤓</t>
+          <t>AT_USER AT_USER AT_USER AT_USER Un año de derecho o un año de mostopapi nose tú pero yo lo tengo claro jajaja</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1559,7 +1571,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.593552242692311</v>
+        <v>1.801313674360861</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -1579,20 +1591,20 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.383487764675531e+18</v>
+        <v>1.399442673258439e+18</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Y ya me ha pasao</t>
+          <t>AT_USER Que pensabas que te iba a regalar mostopapi, una cruz de Cristo?</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-2.434299542014776</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -1612,20 +1624,20 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.380966258858996e+18</v>
+        <v>1.399439868455969e+18</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Bien lo de dejar a uno de 1.60 cubrir un palo</t>
+          <t>AT_USER Grande Mostopapi</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-1.360775308493374</v>
+        <v>0.3615602917679208</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -1645,20 +1657,20 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.379040941919633e+18</v>
+        <v>1.399439276799111e+18</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AT_USER Dutxat porc AT_USER</t>
+          <t>AT_USER El putísimo Mostopapi me ha regalado un puto pajeador que poco le falta para tener función de decirte te q… https://t.co/bGjLpewePT</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-0.7791398696366406</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -1678,20 +1690,20 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.378427621294346e+18</v>
+        <v>1.399439183614288e+18</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cortame mas el pelo si eso ehhhh</t>
+          <t>El putísimo Mostopapi me ha regalado un puto pajeador que poco le falta para tener función de decirte te quiero y a… https://t.co/pt1qdnm4LX</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.7809984615055402</v>
+        <v>-3.46949049363945</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -1711,20 +1723,20 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.378383274079351e+18</v>
+        <v>1.399435544195748e+18</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER</t>
+          <t>AT_USER AT_USER Jajajajajaja y en el mostopapi xk bro? No estoy muy al tanto recientemente de lo q sube n… https://t.co/Jf7w6zpMXW</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1.520830024062756</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -1744,11 +1756,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.377692233009402e+18</v>
+        <v>1.399433451682636e+18</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AT_USER Cabron llevas piripa todo el dia</t>
+          <t>Es del Monopoly x Mostopapi  llevo tiempo buscandolo 🤩 https://t.co/XhOdXtIQD7</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1757,7 +1769,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-0.963278370034387</v>
+        <v>-1.069825972347302</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -1777,20 +1789,20 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.375173169208758e+18</v>
+        <v>1.399428948094751e+18</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>El muesli de casa ametller es lo puto mejor</t>
+          <t>Mostopapi me da como pereza</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-0.3339892614893547</v>
+        <v>-0.5547304401062343</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -1810,20 +1822,20 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.374832748867768e+18</v>
+        <v>1.399428075708891e+18</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Q asco me da mi compañero de trabajo de la uni d vd no hace el puto huevo</t>
+          <t>AT_USER AT_USER Voy a ello yo también, los 100 leuros mejor invertidos</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.08717451547556454</v>
+        <v>3.17452021905323</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -1843,20 +1855,20 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.374467791433036e+18</v>
+        <v>1.399427455404941e+18</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Verdades como puños</t>
+          <t>JOJOJOJO que 100 euros más bien gastados, gracias ídolo AT_USER https://t.co/GdjTcQrRgw</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.1102458634870147</v>
+        <v>2.993033790702265</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
@@ -1876,20 +1888,20 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.374465162049069e+18</v>
+        <v>1.399427089711964e+18</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nacho wapo</t>
+          <t>AT_USER ahhora yo tambien quiero que le haga la entrevista mostopapi</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-1.361892492587509</v>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -1909,20 +1921,20 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.374130548394881e+18</v>
+        <v>1.399426942722523e+18</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Me apetece sushi y vino blanco🥲</t>
+          <t>AT_USER AT_USER Es más ha pagado 105€ gran seguidor</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-1.679696662137248</v>
+        <v>3.947111509070813</v>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -1942,11 +1954,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.374103562901459e+18</v>
+        <v>1.39942556388277e+18</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sigo esperando</t>
+          <t>Me he dejado todos mis ahorros en el follow de Mostopapi https://t.co/mDkJCNMSt9</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1955,7 +1967,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.3176554754276771</v>
+        <v>-0.449369924448408</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -1975,20 +1987,20 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.374040255989432e+18</v>
+        <v>1.399425453820191e+18</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AT_USER Borratxo</t>
+          <t>mostopapi hazle una entrevista a powerbazinga por favor es lo unico que te voy a pedir</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>-1.600534468740906</v>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -2008,20 +2020,20 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.373999600365879e+18</v>
+        <v>1.399422495187509e+18</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Coffeeeeee</t>
+          <t>AT_USER AT_USER no nos jodas la vida eh q nos quedamos tiesos</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>0.9668978396473789</v>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -2041,11 +2053,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.372329788933804e+18</v>
+        <v>1.399418403950141e+18</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>AT_USER Llevo casi dos mesus esperan</t>
+          <t>AT_USER Sien euros mostopapi culo teta xoxo</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2054,7 +2066,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-0.7634059302630936</v>
+        <v>-1.741152361454831</v>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -2074,20 +2086,20 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.372329468317078e+18</v>
+        <v>1.399416884542517e+18</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Quiero mis nike yaaaaaaaa que salga mi numero porfavor</t>
+          <t>AT_USER AT_USER Umtiti y mostopapi</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-2.416599964915376</v>
+        <v>0</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2107,20 +2119,20 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.370935215137362e+18</v>
+        <v>1.399416576521159e+18</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Alutas?</t>
+          <t>AT_USER AT_USER Mostopapi también es vasco aparte de Guinea Ecuatorial, pero bueno, como tú quieras.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>0.8963676888415413</v>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
@@ -2135,204 +2147,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>1.370863064967447e+18</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>AT_USER Descansa precioso 💕</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>-2.32893902635695</v>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>1.37077825887103e+18</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Me siento: 🤡</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>-2.569633460648499</v>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>1.370110477213258e+18</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>AT_USER https://t.co/nacJnaVx3e</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>1.369784040291721e+18</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Echo d menos el cine d mi pueblo :(</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>-1.180156708789894</v>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>1.369385027650388e+18</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Who knows</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>1.368977262536757e+18</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Hoy d negro</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>5.391522668242771</v>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Result_df/df_postss.xlsx
+++ b/Result_df/df_postss.xlsx
@@ -490,20 +490,20 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.399735901618676e+18</v>
+        <v>1.399853305464041e+18</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AT_USER haha jonathan you are banging mostopapi</t>
+          <t>AT_USER Cause the dick is better</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.598635256446478</v>
+        <v>0.4718061552549353</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -523,21 +523,20 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.39972896705835e+18</v>
+        <v>1.399853303681405e+18</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Q mostopapi ha hecho un hábitos con la asquerosa de la ex de mario
-Q hace dandole fama a esa podrida</t>
+          <t>AT_USER Fat ass to balance the fat dick?</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.752272378191661</v>
+        <v>0.4718061552549353</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -557,11 +556,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.39972230554735e+18</v>
+        <v>1.399853300623741e+18</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AT_USER Estas preparado para el habitos con mostopapi?</t>
+          <t>I remember I said some shit along these lines several years back and that dirty looking asshole from Philly who cla… https://t.co/Cps87fGruy</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -570,7 +569,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.737051996900189</v>
+        <v>-2.319879387926461</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -590,20 +589,20 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.399722024516399e+18</v>
+        <v>1.399853300313436e+18</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER https://t.co/L4c62PsDkA</t>
+          <t>And don’t forget cuz they broke!! Dick ride/Kiss Ass to ride ya wave!! Some mf wouldn’t drink if not for ppl buying… https://t.co/B0zvDIlZPD</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6492423642197017</v>
+        <v>-0.9705074919657545</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -623,20 +622,20 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.399721444003693e+18</v>
+        <v>1.399853286975578e+18</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER https://t.co/47TANT6qrt</t>
+          <t>big dick small heart</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6492423642197017</v>
+        <v>-0.8248616295806762</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -656,11 +655,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.399720783744803e+18</v>
+        <v>1.399853283309765e+18</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cuántas veces habéis cancelado ya al Grefg ese? Pa qué lo hacéis si se os olvida a los 4 días? En qué quedó la canc… https://t.co/oMyfI855W0</t>
+          <t>AT_USER AT_USER I am as soon as I get home. I look like Shrek-it-Ralph, and guarantee I have at least 3 i… https://t.co/haHYF6c0D3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -669,7 +668,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-2.218651514604828</v>
+        <v>-4.783598356628086</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -689,20 +688,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.399719960201552e+18</v>
+        <v>1.399853282789581e+18</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Contraataque de twich ASMR a los hot tubs, sobar los microfonos... Mostopapi adelantado por la derecha</t>
+          <t>I need you to be on my dick but I can also get tired of you fast 🥴</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.416724213713826</v>
+        <v>-1.027357903202228</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -722,20 +721,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.399706881510236e+18</v>
+        <v>1.399853279656489e+18</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AT_USER mostopapi youtuber de toda la vida?</t>
+          <t>Hmmm
+I wanna suck a dick</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.1494140261201318</v>
+        <v>-1.12300058430516</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -755,21 +755,20 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.399706298997002e+18</v>
+        <v>1.399853279434232e+18</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dato curioso:
-No es para justificar nada ni mucho menos pero... Os habéis fijado que últimamente los grandes youtub… https://t.co/VytJuVCLo6</t>
+          <t>this boy added me to his paid private snap for free and i never see him give head or some fingering po, it's always… https://t.co/de1Gd7sdRR</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.005291538171256827</v>
+        <v>1.003965243327911</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -789,13 +788,12 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.399705586535735e+18</v>
+        <v>1.399853278691828e+18</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AT_USER Mujer: pene vagina
-Mostopapi: *glup*
-Niños de 13 años:</t>
+          <t>Send £10 then Drop a heavy book on your dick &amp;amp; send me proof 😂
+Findom cbt</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -804,7 +802,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1.777090163428478</v>
+        <v>-0.6942118141339159</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -824,20 +822,20 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.399687555214459e+18</v>
+        <v>1.399853274161893e+18</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER Ejem ejem mostopapi</t>
+          <t>AT_USER AT_USER AT_USER AT_USER AT_USER literally suck dick??? like your stalking our pa… https://t.co/1KPa0Yc2HM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-2.129066586585657</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,20 +855,21 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.399681109894574e+18</v>
+        <v>1.399853270470783e+18</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>mostopapi cuando salga sexo 2 https://t.co/0SlFkfcfos</t>
+          <t>All these white boys in downtown Los Angeles California on Crystal meth an suck each others dick..
+Stay away from downtown white boys...</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.6936045046476975</v>
+        <v>-1.338313625548617</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -890,22 +889,20 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.399665997532078e+18</v>
+        <v>1.399853259356058e+18</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MUCHAS GRACIAS AT_USER 😍
-Es el MEJOR ✨ día de mi VIDA. Pronto haremos un hábitos tu y yo😎🥵🤭
-Es INDESCRPTIBLE 😱 e… https://t.co/RHGsFbVyJI</t>
+          <t>Small dick energy https://t.co/MK6YmPXrxb</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>7.662528096930197</v>
+        <v>-1.474103993800378</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -925,11 +922,12 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.399659729878716e+18</v>
+        <v>1.399853258559181e+18</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cuando parece que no puede ser más imbécil, Mostopapi te demuestra que si puede y que estábamos equivocados. https://t.co/WTbFVYe57Z</t>
+          <t>So horny, any girls want to see my big white cock? Like or DM me 🍆
+#cock #dick #dickrate #cumtribute #cocktribute… https://t.co/0RCeIRI80z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -938,7 +936,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.468094515427772</v>
+        <v>1.59588723727359</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -958,21 +956,20 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.399656284509643e+18</v>
+        <v>1.399853257535767e+18</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Un año de universidad: Sobre 1000€
-Un año seguido por Mostopapi: 1200€ y ganarte el status de pajero supremo.</t>
+          <t>it’s the end of my dick dn era ✊🏽😔</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-1.807293319241956</v>
+        <v>0.427066458178303</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -992,21 +989,20 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.399655874013143e+18</v>
+        <v>1.399853255501533e+18</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Comprarse la entrada del primavera: mentalidad de pobre
-Esperar a que sortee una mostopapi: mentalidad de tiburón</t>
+          <t>AT_USER // They are but my Kol is a dick. 😂 https://t.co/z19CJQjDJ4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-3.333039390911592</v>
+        <v>-0.08292428485129894</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1026,20 +1022,20 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.399648158800658e+18</v>
+        <v>1.399853252762604e+18</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER mostopapi, para empezar</t>
+          <t>AT_USER You must have a really small dick.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-1.335687253346667</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1059,20 +1055,20 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.399563450263736e+18</v>
+        <v>1.399853249868362e+18</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no le veo la gracia a los videos d mostopapi jsjsa hernan se duerme en vivo</t>
+          <t>AT_USER I’ll suck that lady dick nice</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5.84254243795721</v>
+        <v>-0.4298534037452152</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1092,20 +1088,20 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.399513599467573e+18</v>
+        <v>1.399853248530596e+18</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AT_USER Aunq mostopapi tienw sida</t>
+          <t>AT_USER AT_USER Damn just ask him don’t have to suck his dick</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.8145496858293204</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1125,20 +1121,20 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.399507040658145e+18</v>
+        <v>1.399853245003178e+18</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>100 pavos para que mostopapi te tenga muted https://t.co/fRKWnCu55g</t>
+          <t>hoes a dick ride to make a  friend pathetic 😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂😂</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-0.449369924448408</v>
+        <v>-2.512769476516695</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1158,11 +1154,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.399503069398852e+18</v>
+        <v>1.399853243623043e+18</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>oye AT_USER hazte un video con Hashim Thaçi, primer presidente de Kosovo tras la independecia e imputado por cri… https://t.co/FfgCX2fDoJ</t>
+          <t>AT_USER AT_USER Yeah, I know you'd never do something out of spite, and it's certainly harmless. I just imme… https://t.co/1kDoTZCFVs</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1171,7 +1167,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.879720087274797</v>
+        <v>0.6319480692872864</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1191,20 +1187,20 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.399499650781045e+18</v>
+        <v>1.399853238514602e+18</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER Q va me referia a mostopapi</t>
+          <t>AT_USER dick é melhor q o jason e o bruce???</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1198297320977574</v>
+        <v>-0.8248616295806762</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1224,20 +1220,21 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.39948515584528e+18</v>
+        <v>1.399853235029037e+18</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER Willyrex y mostopapi 😍</t>
+          <t>First deep tweet pog,
+ive found that I've made a lot more friends online recently! they're all awesome!! but I thi… https://t.co/kc0pYKzxBp</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1.14056504017783</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1257,11 +1254,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.399484475424268e+18</v>
+        <v>1.399853233200407e+18</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>100 euros o mes porque te siga Mostopapi , é o proxeneta mais barato da historia https://t.co/Z63QpsgYu8</t>
+          <t>Get some dick and go don’t go to claiming no nigga kids and all this. Especially not mine cause my job is handled.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1270,7 +1267,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.4421408025170406</v>
+        <v>0.009486880309583223</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1290,13 +1287,11 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.399482560527442e+18</v>
+        <v>1.399853215441637e+18</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-¿Papá me das 100€ para material escolar?
--Tu también has visto lo de Mostopapi eh
--Sí https://t.co/NG3YHddyhK</t>
+          <t>I got that dick that make you go “I mean I guess that works”</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1305,7 +1300,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-2.250973714902479</v>
+        <v>-5.164380691756528</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1325,20 +1320,20 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.399471026703057e+18</v>
+        <v>1.399853212849541e+18</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER AT_USER</t>
+          <t>I hate when I get good dick and then can’t have it again :..(</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-3.540866427436733</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -1358,21 +1353,20 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.399467459720225e+18</v>
+        <v>1.399853210446316e+18</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://t.co/0C9URCuLfC
-mostopapi era un principiante a su lado, a mi lo de este canal un dia me lo tienen que expl… https://t.co/0AVpI8zl9c</t>
+          <t>Future wife sai ame pass out on some dick</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.615318595547004</v>
+        <v>-0.9126712622611632</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1392,20 +1386,20 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.399466123138114e+18</v>
+        <v>1.399853205748687e+18</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Como molaría un hábitos con AT_USER AT_USER 🤔</t>
+          <t>AT_USER Can a dick fit in your mouth?</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-1.923473918248786</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1425,20 +1419,20 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.399463091193233e+18</v>
+        <v>1.399853202397295e+18</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AT_USER Puto mostopapi siempre liándola</t>
+          <t>I’ve been accused of discriminatory hiring practices in my role as Floor Manager at the dick sucking factory.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-0.006164488357396644</v>
+        <v>0.5607465449248874</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1458,11 +1452,12 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.399458315944579e+18</v>
+        <v>1.399853200417509e+18</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>¿Qué leyes INCUMPLE el SORTEO de MOSTOPAPI e ITRADEIT? Feat. AT_USER y Deso... https://t.co/nyM5EUvp0f a través de AT_USER</t>
+          <t>Every time I see someone post a photo with a sleeping cat on them say “how am I gonna move now 🤪” i get mad
+Try it… https://t.co/ecA7UuoDRn</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1471,7 +1466,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-1.894861009258642</v>
+        <v>-1.484547303177751</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1491,21 +1486,20 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.399454229467697e+18</v>
+        <v>1.399853190514946e+18</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>mostopapi
-mostopapi cuando salga sexo 2 https://t.co/c4xOrvODsK</t>
+          <t>AT_USER Many levels dick head.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.6936045046476975</v>
+        <v>-0.737051996900189</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -1525,20 +1519,20 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.399444678852948e+18</v>
+        <v>1.39985318413541e+18</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER A ver cómo cojones me mantengo sin comida para las próximas 3 semanas</t>
+          <t>AT_USER idk. hey AT_USER How much more propaganda until Dick automatically becomes the fifth?</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.8234325000537276</v>
+        <v>-0.2446121368479259</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -1558,20 +1552,20 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.399444208545677e+18</v>
+        <v>1.399853172361925e+18</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER AT_USER AT_USER Un año de derecho o un año de mostopapi nose tú pero yo lo tengo claro jajaja</t>
+          <t>AT_USER AT_USER I smell jealousy, attention and need dick to chill tf out okay hanna leave my whore tana alone</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1.801313674360861</v>
+        <v>-0.1811907998044897</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -1591,11 +1585,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.399442673258439e+18</v>
+        <v>1.39985316852403e+18</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AT_USER Que pensabas que te iba a regalar mostopapi, una cruz de Cristo?</t>
+          <t>AT_USER AT_USER i fucking saw that LMAOOO “come on my dick”</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1604,7 +1598,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-2.434299542014776</v>
+        <v>-2.196093820346754</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -1624,20 +1618,20 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.399439868455969e+18</v>
+        <v>1.399853166993318e+18</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AT_USER Grande Mostopapi</t>
+          <t>He wants to suck Trumps dick sooooooooooooo badly https://t.co/CnosXBF3yX</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.3615602917679208</v>
+        <v>-1.23032673768884</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -1657,11 +1651,12 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.399439276799111e+18</v>
+        <v>1.399853166162854e+18</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AT_USER El putísimo Mostopapi me ha regalado un puto pajeador que poco le falta para tener función de decirte te q… https://t.co/bGjLpewePT</t>
+          <t>I know she suck dick 
+I know she ain’t shit</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1670,7 +1665,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-0.7791398696366406</v>
+        <v>-3.500581080709481</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -1690,11 +1685,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.399439183614288e+18</v>
+        <v>1.399853164359193e+18</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>El putísimo Mostopapi me ha regalado un puto pajeador que poco le falta para tener función de decirte te quiero y a… https://t.co/pt1qdnm4LX</t>
+          <t>AT_USER AT_USER A useless dick</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1703,7 +1698,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-3.46949049363945</v>
+        <v>-0.737051996900189</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -1723,20 +1718,20 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.399435544195748e+18</v>
+        <v>1.399853158331929e+18</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER Jajajajajaja y en el mostopapi xk bro? No estoy muy al tanto recientemente de lo q sube n… https://t.co/Jf7w6zpMXW</t>
+          <t>“Dick is like a drug”😂</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.520830024062756</v>
+        <v>-2.211155990700567</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -1756,11 +1751,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.399433451682636e+18</v>
+        <v>1.399853156905927e+18</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Es del Monopoly x Mostopapi  llevo tiempo buscandolo 🤩 https://t.co/XhOdXtIQD7</t>
+          <t>The cute guy i’ve been flirting with hit me with the “hey i cant flirt anymore i’m in a relationship” text 😔😔😔 one less dick for me</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1769,7 +1764,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-1.069825972347302</v>
+        <v>-3.957866313703584</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -1789,11 +1784,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.399428948094751e+18</v>
+        <v>1.399853148152467e+18</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mostopapi me da como pereza</t>
+          <t>AT_USER I was like "Yay she's back, awww look at the bunny...............................Shit that's a nice di… https://t.co/JGRN65DSsr</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1802,7 +1797,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-0.5547304401062343</v>
+        <v>-2.66202153036146</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -1822,20 +1817,20 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.399428075708891e+18</v>
+        <v>1.399853144541176e+18</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER Voy a ello yo también, los 100 leuros mejor invertidos</t>
+          <t>AT_USER Baby you've got my dick about to explode</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3.17452021905323</v>
+        <v>-1.630906497967817</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -1855,11 +1850,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.399427455404941e+18</v>
+        <v>1.399853135074513e+18</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>JOJOJOJO que 100 euros más bien gastados, gracias ídolo AT_USER https://t.co/GdjTcQrRgw</t>
+          <t>AT_USER It's just assholes who want to dick ride other people's personal experiences for clout. Some people have zero shame.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1868,7 +1863,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.993033790702265</v>
+        <v>0.5475013181748671</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
@@ -1888,20 +1883,20 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.399427089711964e+18</v>
+        <v>1.39985313312009e+18</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AT_USER ahhora yo tambien quiero que le haga la entrevista mostopapi</t>
+          <t>I wish my squirting dildo didn't make a fizzing sort of sound when it ejaculates, but it does and there doesn't see… https://t.co/lNMBhw9dOX</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-1.361892492587509</v>
+        <v>-0.3568100651654639</v>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -1921,20 +1916,20 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.399426942722523e+18</v>
+        <v>1.399853130616037e+18</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER Es más ha pagado 105€ gran seguidor</t>
+          <t>AT_USER Idk if I wanna suck your tits or dick first</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3.947111509070813</v>
+        <v>-3.364129977981624</v>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -1954,20 +1949,20 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.39942556388277e+18</v>
+        <v>1.399853122437059e+18</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Me he dejado todos mis ahorros en el follow de Mostopapi https://t.co/mDkJCNMSt9</t>
+          <t>AT_USER AT_USER He has my vote for “Dick of the decade”.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-0.449369924448408</v>
+        <v>0.9642460153071983</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -1987,11 +1982,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.399425453820191e+18</v>
+        <v>1.399853111561294e+18</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>mostopapi hazle una entrevista a powerbazinga por favor es lo unico que te voy a pedir</t>
+          <t>AT_USER AT_USER AT_USER Lmao he was a dick head to me too, I liked to describe him as thinking h… https://t.co/QTZL3Xun5p</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2000,7 +1995,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-1.600534468740906</v>
+        <v>-3.695716866773648</v>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -2020,20 +2015,20 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.399422495187509e+18</v>
+        <v>1.399853109871059e+18</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER no nos jodas la vida eh q nos quedamos tiesos</t>
+          <t>AT_USER &amp;amp; I be son more onnuh dick soooooo</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.9668978396473789</v>
+        <v>-1.816147764865106</v>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -2053,11 +2048,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.399418403950141e+18</v>
+        <v>1.399853109396922e+18</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>AT_USER Sien euros mostopapi culo teta xoxo</t>
+          <t>Oh shit happy pride month 😳 I like dick but I’m scared of it</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2066,7 +2061,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-1.741152361454831</v>
+        <v>-4.740755909609097</v>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -2086,20 +2081,20 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.399416884542517e+18</v>
+        <v>1.399853107660485e+18</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER Umtiti y mostopapi</t>
+          <t>AT_USER Patriot dick wad: no thanks I have a headache.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>-1.728338132184619</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2119,20 +2114,20 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.399416576521159e+18</v>
+        <v>1.399853106016526e+18</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER Mostopapi también es vasco aparte de Guinea Ecuatorial, pero bueno, como tú quieras.</t>
+          <t>AT_USER What zero dick does to a person</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.8963676888415413</v>
+        <v>-0.3754917051322682</v>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>

--- a/Result_df/df_postss.xlsx
+++ b/Result_df/df_postss.xlsx
@@ -470,11 +470,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.400578808684577e+18</v>
+        <v>1.4011710674193e+18</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chris Hemsworth wraps Thor: Love and Thunder with Taika Waititi - HOLA USA https://t.co/XwyrqE2TEQ</t>
+          <t>¡Vaya clasificación más vibrante hemos tenido en las calles de Bakú! ¡Segunda pole de Leclerc en 2021! P2 Hamilton… https://t.co/ftCV4wW3gh</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -483,11 +483,11 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.224014606045651</v>
+        <v>3.376093446263508</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -501,11 +501,12 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.400578807040459e+18</v>
+        <v>1.401171045839671e+18</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AT_USER Hola AT_USER , nos gustaría validar tu caso, por favor cuéntanos a través de DM lo sucedido. Recu… https://t.co/BKtXOQJhyk</t>
+          <t>🏎️🥇 ¡POLE position para LECLERC!
+SAINZ saldrá 5º y ALONSO 9º. #AzerbaijanGP https://t.co/qZgWfck4oI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -514,16 +515,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.30552310324513</v>
+        <v>2.610548715005187</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -532,24 +533,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.400578806386209e+18</v>
+        <v>1.401171038503948e+18</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PAULA DAZA PREOCUPADA DE VIDAL EN VEZ DE LA GENTE</t>
+          <t>AT_USER Sr alonso, eso es un dicho popular, no es que el Sr Dao lo acaba de inventar... pero como ud siempre… https://t.co/2KFtzx5AfN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2210624218104634</v>
+        <v>-2.746506414399451</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -563,24 +564,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.400578805790564e+18</v>
+        <v>1.401171010280464e+18</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hola gente, quería consultar si alguien ve estas pastillas en su ciudad pueda avisar, es para ir en ayuda de una pe… https://t.co/NatuDsMufU</t>
+          <t>AT_USER “Que nadie cree”. En serio un poco de humildad a estos tuiteros no?</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.5563709483462522</v>
+        <v>-1.923473918248786</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -594,11 +595,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.400578801940173e+18</v>
+        <v>1.40117099576814e+18</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AT_USER HOLA MI AMOR????????#?#??#??</t>
+          <t>AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER Je,je,je el comentario estupido del día</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -607,11 +608,11 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.663165613138757</v>
+        <v>1.970163323465633</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -625,24 +626,29 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.400578801361379e+18</v>
+        <v>1.401170973169263e+18</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>hola soy jime,, tengo 14 escucho la música de Zayn desde hace 3 años creo¿? pero lo empecé a stanear el año pasado,… https://t.co/YW3dYNmPsa</t>
+          <t>Así #GPAzerbaiyan 
+Leclerc ✌🏻
+Hamilton mucha suerte siempre
+Verstappen le robaron
+Gasly 🤤
+Sainz se desconcentr… https://t.co/DpdXvr1qqc</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.7510633330184427</v>
+        <v>1.460710383511614</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -656,24 +662,24 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.400578798932877e+18</v>
+        <v>1.401170972854604e+18</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>🙋 Aprende a cultivar glicinia y disfruta de su espectacular floración en tu jardín 🏡 https://t.co/xe2929VSls Pensan… https://t.co/yWXY0X1W9B</t>
+          <t>AT_USER Varios haters de Alonso por aquí 😂</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.298484728439403</v>
+        <v>0.3917634475813992</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -687,11 +693,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.400578797678776e+18</v>
+        <v>1.401170954861044e+18</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hola AT_USER nos encantaría que pasen "Dejaría todo"❤ lo nuevo de AT_USER ¡Dejamos votos para el ranking!… https://t.co/yDC2j9fNqn</t>
+          <t>🔴 POLE de Charles Leclerc en el GP de Azerbaiyán de F1... ¡beneficiado otra vez por una bandera roja! Carlos Sainz… https://t.co/acLn3dM4Hq</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -700,11 +706,11 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5.540740488347458</v>
+        <v>1.729457381192945</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -718,24 +724,24 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.400578793497039e+18</v>
+        <v>1.401170919519887e+18</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hola hola AT_USER me encantaría escuchar #Butter del grupo AT_USER y votar para que esta canción lidere el… https://t.co/tFuSrRibL6</t>
+          <t>Triste pq quería ver esa última vuelta de Sainz y Alonso... 😭 https://t.co/YeA9Q7AxJp</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4.753215022457551</v>
+        <v>-6.313949474685725</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -749,11 +755,12 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.400578790716281e+18</v>
+        <v>1.40117089764243e+18</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hola, podemos volver a hablar? Es que extraño el espejo de tu pieza</t>
+          <t>Ojalá más clasificaciones como las de Bakú.
+Una pena ese accidente de Carlos que tenía opciones de estar más arriba… https://t.co/XKR0oMoeye</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -762,11 +769,11 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-2.140096694062367</v>
+        <v>-1.337938997665507</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -780,24 +787,24 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.400578788166095e+18</v>
+        <v>1.40117083249222e+18</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AT_USER hola!! X favor necesito hablar c alguien. Imposible comunicarse x teléfono. Gracias!!</t>
+          <t>AT_USER Sólo se quién es Fernando Alonso y Vettel, de ahí no me sacas</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.6170255419392232</v>
+        <v>0.8798864626577489</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -811,11 +818,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.400578784315781e+18</v>
+        <v>1.401170789181932e+18</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AT_USER  hola tengo entendido que estás realizando un estudio sobre las vacunas, me gustaría saber de qué… https://t.co/ivUpfySWT3</t>
+          <t>Festival de rebufos. Otra qualy que acaba con bandera roja y otra pole para Leclerc. Una pena perdernos los intento… https://t.co/3RLKso3GQ5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -824,11 +831,11 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3.975889805180509</v>
+        <v>0.7455712319369608</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -842,24 +849,26 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.400578782470328e+18</v>
+        <v>1.401170727265526e+18</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>hola soy daniela, staneo a zayn desde q estaba en la banda, es mi prioridad. soy dueña de common, mom y zayn con la… https://t.co/DlZI2st8MU</t>
+          <t>#AzerbaijanGP 
+📌 Charles Leclerc repitió lo hecho en Mónaco  y se quedó con la Pole de #BakuGP.
+Las primeras posic… https://t.co/DFb74pjeCx</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.771128055674921</v>
+        <v>0.1634681705548878</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -873,24 +882,26 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.400578780633108e+18</v>
+        <v>1.401170687130313e+18</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AT_USER Hola, no he hablado contigo, pero me agradas 🤝💅</t>
+          <t>No había nacido pero es el orgullo del pueblo colo colino grande club de mis amores 
+La copa se mira y se toca 
+Oja… https://t.co/z3XEzY08yq</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.03045658916174</v>
+        <v>-0.3718722355192766</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -904,24 +915,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.400578777013535e+18</v>
+        <v>1.401170677684654e+18</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AT_USER Hola bella, todo bien ¿y tú?💕</t>
+          <t>AT_USER Leclerc
+hamilton
+verstappen
+redflag  tsunoda en la ultima vuelta impidió a alonso y a bottas tener tiempo de qually.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.7633938039126953</v>
+        <v>-0.0002012205524452026</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -935,27 +949,24 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.400578775222473e+18</v>
+        <v>1.401170676770353e+18</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AT_USER Hola
-Franco Parisi, Será el próximo Presidente de Chile. Es algo inevitable.
-Saludos cordiales.
-Pd: Cua… https://t.co/Q4WtbD2C6D</t>
+          <t>AT_USER Ahora dilo sin llorar</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.64051212297902</v>
+        <v>-2.414492277253593</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -969,24 +980,24 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.400578774710825e+18</v>
+        <v>1.401170676678078e+18</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AT_USER JANSJAJ HOLA, soy la misma adm que lana</t>
+          <t>#F1 Alonso pudo volver a batir a su compañero en clasificación. Ha dado un buen paso adelante a una vuelta en Baku.… https://t.co/dYh2YztzTd</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.459192808812821</v>
+        <v>-1.549845102381345</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1000,25 +1011,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.400578773360251e+18</v>
+        <v>1.401170656969044e+18</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AT_USER Hola 🤗 ¡Me pediste que te recuerde esto!
-https://t.co/dQLlSrEK5y</t>
+          <t>Me hubiera gustado ver el ultimo intento de Alonso con nuevas
+Hay que ir pensando en las Q a una vuelta. Ya lo dije… https://t.co/vC6ssp9VCb</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3.678207829074191</v>
+        <v>-1.912284454656135</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1032,11 +1043,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.400578773083472e+18</v>
+        <v>1.4011706078831e+18</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hola no sé qn eres pero t amo https://t.co/Q5E0MsVUBv</t>
+          <t>AT_USER Jajajaja una caja de 🍺 para ti buen hombre 🤣🤣🤣</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1045,11 +1056,11 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.448604274819126</v>
+        <v>0.8669035566560919</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1063,11 +1074,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.400578771024069e+18</v>
+        <v>1.401170549712228e+18</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER AT_USER Hola AT_USER que ingrese en el #RankingRD la canción " Ga… https://t.co/hRJwkabPnd</t>
+          <t>Alonso supera la Q2. Jajaja nice</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1076,11 +1087,11 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3.743392138093139</v>
+        <v>1.367477599926355</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1094,25 +1105,24 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.400578770910814e+18</v>
+        <v>1.40117054391577e+18</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Hola AT_USER Les quería pedir y dejar mi voto para #FuisteMía de AT_USER y AT_USER gracias! 😍 #RankingVale 
-AT_USER</t>
+          <t>AT_USER Y esto sin considerar a los comensales viejitos que ya comieron el menú sin importaciones es el hambre,… https://t.co/qBGop6GNWy</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.630847713105873</v>
+        <v>-0.1317144490207307</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1126,11 +1136,12 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.400578768956232e+18</v>
+        <v>1.40117052662689e+18</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AT_USER hola val te doy</t>
+          <t>#ÚLTIMAHORA | 🚥 Novena 'pole' para Leclerc 🇲🇨, que saldrá por delante de Hamilton 🇬🇧 en Azerbaiyán.
+🇪🇸 Carlos Sain… https://t.co/XOqAhiPpaK</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1139,16 +1150,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.790779697604845</v>
+        <v>1.660045020207324</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1157,24 +1168,24 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.400578766087336e+18</v>
+        <v>1.40117051761748e+18</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AT_USER hola señorita</t>
+          <t>AT_USER Je,je,je no jodas.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1374369688305015</v>
+        <v>1.947727092659105</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1188,11 +1199,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.400578763151323e+18</v>
+        <v>1.401170470645514e+18</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Hola mutis sé que no eh estado muy activa pero estoy haciendo trabajos finales de mi escuela espero y me puedan ayu… https://t.co/O9Z4Ifgrqm</t>
+          <t>Increíble la qualy de hoy. 4 banderas rojas. Pena Alonso que no haya hecho una vuelta con blandos nuevos. Con eso y… https://t.co/rk7oQ6ieIT</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1201,11 +1212,11 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.296308475786089</v>
+        <v>5.383746600080814</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1219,12 +1230,11 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.400578761649754e+18</v>
+        <v>1.401170454321062e+18</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Hola AT_USER nos encantaría que pasen "Dejaría todo"❤ lo nuevo de AT_USER
-¡Dejamos votos para el ránking!  📻… https://t.co/Eerd9jGCUd</t>
+          <t>Gasly mejor tiempo, Carlos Sainz 5º, Fernando Alonso 7º https://t.co/w0Tbat7c1N https://t.co/hdGBjJ4yjd</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1233,11 +1243,11 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5.540740488347458</v>
+        <v>0.8976489189975897</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1251,11 +1261,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.400578757841281e+18</v>
+        <v>1.401170429180629e+18</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER Dile hola a Pucca, y no quiere a Garu. https://t.co/FWKBAJE2Bo</t>
+          <t>Hoy en #descubriendoeltesoro hablamos del Cáliz de Alonso de Burgos, esperamos que os guste. ¿Y vosotros? ¿Ya habéi… https://t.co/wUicWyBZre</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1264,16 +1274,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.070447506180848</v>
+        <v>3.353791442650751</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1282,29 +1292,29 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.40057875735903e+18</v>
+        <v>1.401170421534298e+18</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>hola mutis era esta, hoy comienza una nueva era para trinini 💪🏻 fav si me reconocen&amp;lt;3 https://t.co/gH9tCPiEmk</t>
+          <t>AT_USER AT_USER A pesar de todo el pasivo que pueda tener esta candidata, nunca votariamos por la izquierda… https://t.co/YbuTCdygaH</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.196936738501721</v>
+        <v>-2.240110705763529</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1313,11 +1323,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.400578757241545e+18</v>
+        <v>1.401170418141209e+18</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AT_USER HOLA PQ NO NOS SEGUIAMSO?#¿$£^(^</t>
+          <t>AT_USER AT_USER AT_USER AT_USER AT_USER Ese el problema, no ven el problema como uno… https://t.co/jJcbsTpcUZ</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1326,11 +1336,11 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.058613048533845</v>
+        <v>2.909725166882703</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1344,11 +1354,14 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.400578742255227e+18</v>
+        <v>1.401170373782221e+18</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>estoy nerviosa hola</t>
+          <t>3. Luz Helena Morales Garay,  fiscal de la JEP.
+4. Lester María González.
+5. Eduardo Castellanos Roso.  
+6. José Gi… https://t.co/tSgloNsW4e</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1357,11 +1370,11 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.790779697604845</v>
+        <v>3.404130664660819</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1375,29 +1388,29 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.400578741638664e+18</v>
+        <v>1.401170365276111e+18</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER Hola muchas gracias 😊</t>
+          <t>AT_USER Alonso</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.466479335533746</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1406,24 +1419,24 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.400578739424092e+18</v>
+        <v>1.40117034708122e+18</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER hola lamento las fallas reportadas con tu servicio, para solucionarlo es necesario me ay… https://t.co/jvPaPyJpUF</t>
+          <t>AT_USER AT_USER Si desgraciada, por tu culpa el pais está cómo está!!deberia de darte vergüenza (qué no l… https://t.co/jGy83xR7d0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.6110600676892287</v>
+        <v>-1.125003897471157</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1437,11 +1450,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.400578738207793e+18</v>
+        <v>1.401170301698859e+18</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER AT_USER Hola cabron, gracias. Aquí andamos</t>
+          <t>🔴 #ÚLTIMAHORA | Leclerc reina entre la locura en Bakú y Sainz y Fernando Alonso saldrán en el top 10… https://t.co/tJaOOHqVdJ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1450,11 +1463,11 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5.014723964628271</v>
+        <v>1.983864983992398</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1468,25 +1481,24 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.400578736215429e+18</v>
+        <v>1.401170231448441e+18</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER ¡Hola, Valeria!, con mucho gusto. ✅
-En el siguiente link encontrarás mayor información… https://t.co/oGGCYVo1Wq</t>
+          <t>AT_USER Ahi si grita policía bien sacada la puta</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.994378139241875</v>
+        <v>-2.104487948561436</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1500,11 +1512,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.400578730414817e+18</v>
+        <v>1.401170229938491e+18</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AT_USER hola beibi</t>
+          <t>🔴 #ÚLTIMAHORA | Leclerc reina entre la locura de Bakú y Sainz y Fernando Alonso saldrán en el top 10… https://t.co/ONmOIUfQu1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1513,11 +1525,11 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1.790779697604845</v>
+        <v>1.983864983992398</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1531,29 +1543,29 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.400578729756271e+18</v>
+        <v>1.401170212746154e+18</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AT_USER hola valeeen</t>
+          <t>AT_USER Que alguien le diga que lo que está prohibido es la venta de licor, no el consumo.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.790779697604845</v>
+        <v>-1.602091927351163</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1562,11 +1574,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.400578727298355e+18</v>
+        <v>1.401170203837411e+18</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>HOLA ME VOTAN? 😋😋😋😋 https://t.co/oew7d8bPMU</t>
+          <t>🔴 DIRECTO | ¡Final de la clasificación del Gran Premio de Azerbaiyán de #F1!
+🔝 Pole para Leclerc 
+🇪🇸 Sainz saldrá… https://t.co/pa2XL2iypj</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1575,16 +1589,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.790779697604845</v>
+        <v>3.687922170977163</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1593,24 +1607,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.400578725461344e+18</v>
+        <v>1.401170200402203e+18</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Hola AT_USER nos encantaría que pasen "Dejaría todo"❤ lo nuevo de AT_USER ¡Dejamos votos para el ránkin… https://t.co/Zb5qDFF3v9</t>
+          <t>POLE PARA LECLERC POR SEGUNDA VEZ. Acaba la sesión con otro accidente de Yuki Tsunoda y un trompo de Carlos con el… https://t.co/kbhwb9Dv5Q</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5.540740488347458</v>
+        <v>0.02262847868331763</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1624,11 +1638,14 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.400578724224016e+18</v>
+        <v>1.401170138196591e+18</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AT_USER hola, porque la baja de voltaje en av la paz, Recoleta, no pude seguir trabajando ☹️</t>
+          <t>Clasificación Formula 1 // 6ta Fecha (🇦🇿) #AzerbaijanGP
+Top 10
+1° C. Lecrerc🇮🇩    1:41.218
+2° L.Hamilton🇬🇧   0.23… https://t.co/irPM601nw9</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1637,16 +1654,16 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.783550575673478</v>
+        <v>5.76120598465655</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1655,24 +1672,24 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.400578723737387e+18</v>
+        <v>1.401170127954059e+18</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Hola AT_USER hoy en Ibiza un marroquí de 26 años ha tirado a una chica de 21 por el balcón de unos apartamen… https://t.co/m5xDftRgMV</t>
+          <t>Un Tsunoda y un Alonso prometedores intentando conservar puestos y un Bottas, un Pérez, un Vettel y un Ricciardo fr… https://t.co/0jO38DRGhT</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1.379201496376869</v>
+        <v>0.1559676234310501</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1686,13 +1703,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.400578723162821e+18</v>
+        <v>1.401170118873342e+18</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>entro a un lugar:
-yo: hola estan con el tema de los dni para ingresar?
-señora: sisi, obvio por supuesto que si.… https://t.co/iNl6wdEwm4</t>
+          <t>AT_USER Choques en todas las rondas. Leclerc se vuelve a llevar la pole con una bandera roja al final (Tsunod… https://t.co/BcLglbnvBb</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1701,11 +1716,11 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3.719130352671956</v>
+        <v>0.8838248606740183</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1719,24 +1734,31 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.400578721740956e+18</v>
+        <v>1.401170055757505e+18</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AT_USER no mates a nadie t amo hola👋🏻</t>
+          <t>#F1 - Así será la salida del GP de Azerbaiyán:
+1º Leclerc
+2º Hamilton
+3º Verstappen
+4º Gasly
+5º Sainz
+6º Norris
+7º… https://t.co/3kwsTssi0R</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1.967752054029031</v>
+        <v>-0.5994335121373354</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1750,24 +1772,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.400578721250226e+18</v>
+        <v>1.401170050569093e+18</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Hola son las 12 de la noche y en mi edificio solo se escuchan ✨lavadoras✨</t>
+          <t>#F1 - Así será la salida del GP de Azerbaiyán:
+1º Leclerc
+2º Hamilton
+3º Verstappen
+4º Gasly
+5º Sainz
+6º Norris
+7º… https://t.co/6Tu2Y8SExT</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4.719128926407723</v>
+        <v>-0.5994335121373354</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1781,27 +1810,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.400578720465834e+18</v>
+        <v>1.401170049075925e+18</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>dinero: hola
-yo: :)
-dinero: chao pescao
-yo: ):</t>
+          <t>#F1 - Así será la salida del GP de Azerbaiyán:
+1º Leclerc
+2º Hamilton
+3º Verstappen
+4º Gasly
+5º Sainz
+6º Norris
+7º… https://t.co/PnUgark6r0</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6.206722825762934</v>
+        <v>-0.5994335121373354</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1815,24 +1848,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.400578717991289e+18</v>
+        <v>1.401170043673747e+18</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AT_USER omgg soy repre de ese salon hola</t>
+          <t>#F1 - Así será la salida del GP de Azerbaiyán:
+1º Leclerc
+2º Hamilton
+3º Verstappen
+4º Gasly
+5º Sainz
+6º Norris
+7º… https://t.co/QT9CADD0zO</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1.790779697604845</v>
+        <v>-0.5994335121373354</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1846,11 +1886,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.400578714690363e+18</v>
+        <v>1.401170019061584e+18</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AT_USER hola me presentas a tu papá mi hija me mostró fotos y está re lindo</t>
+          <t>AT_USER No creo que sea intencionado, porque iba octavo y no se arriesga a salir 13º o último por mantener la… https://t.co/Q1a8k2WC7i</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1859,11 +1899,11 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-0.7670475596924978</v>
+        <v>-3.528479687784445</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1877,29 +1917,29 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.400578714333819e+18</v>
+        <v>1.401170016167465e+18</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER AT_USER Hola AT_USER dejamos nuestro voto para que “Si tu no estas” de… https://t.co/aCub4cid34</t>
+          <t>Alonso cuando le han dicho que no puede completar la vuelta por bandera roja de Tsunoda: https://t.co/whJzRXQKmP</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.815555415221922</v>
+        <v>-0.05444064070345267</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1908,11 +1948,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.400578713436234e+18</v>
+        <v>1.40116999157207e+18</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AT_USER 😅😅😅 Hola Edgardo!! Tanto tiempo!! Cómo tai??</t>
+          <t>AT_USER AT_USER AT_USER AT_USER Si vez siguen pronunciandose sobre terceros nunca dobfe el candidato… https://t.co/Sgam7V5n7k</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1921,11 +1961,11 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2.929098555799125</v>
+        <v>1.197935406514662</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -1939,24 +1979,24 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.400578712337322e+18</v>
+        <v>1.4011699803061e+18</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Hola AT_USER Les quería pedir y dejar mi voto para #FuisteMía de AT_USER y AT_USER gracias! ❤… https://t.co/nxD3mIWRMY</t>
+          <t>Pole para Leclerc... La segunda consecutiva para para Ferrari. Hamilton P2, Verstappen P3, Gasly P4, Sainz P5, Norr… https://t.co/p8nURVHUK5</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2.592860204924063</v>
+        <v>0.3181119250457161</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -1970,11 +2010,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.400578712240804e+18</v>
+        <v>1.401169942624489e+18</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AT_USER yo hola</t>
+          <t>AT_USER Los principios y valores de la honestidad "no se negocian" a favor de una democracia corrupta votando po… https://t.co/tEqx0QGqjN</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1983,11 +2023,11 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.790779697604845</v>
+        <v>0.5972370548259036</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2001,24 +2041,24 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.400578711703982e+18</v>
+        <v>1.401169904695493e+18</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>AT_USER hola josee, cómo estás?</t>
+          <t>AT_USER AT_USER "¿Trata de pericotearse?" Se pericoteó el vuelto durante décadas usando a los mozos esb… https://t.co/YAE9bAYtAM</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.655903103058875</v>
+        <v>-0.937759317407871</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">

--- a/Result_df/df_postss.xlsx
+++ b/Result_df/df_postss.xlsx
@@ -470,11 +470,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.4011710674193e+18</v>
+        <v>1.40118251757149e+18</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>¡Vaya clasificación más vibrante hemos tenido en las calles de Bakú! ¡Segunda pole de Leclerc en 2021! P2 Hamilton… https://t.co/ftCV4wW3gh</t>
+          <t>3. Luz Helena Morales Garay,  fiscal de la JEP.
+4. Lester María González.
+5. Eduardo Castellanos Roso.  
+6. José Gi… https://t.co/hMXW1HQ4Jy</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -483,7 +486,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.376093446263508</v>
+        <v>3.404130664660819</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -501,21 +504,20 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.401171045839671e+18</v>
+        <v>1.401182479969669e+18</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>🏎️🥇 ¡POLE position para LECLERC!
-SAINZ saldrá 5º y ALONSO 9º. #AzerbaijanGP https://t.co/qZgWfck4oI</t>
+          <t>AT_USER AT_USER AT_USER AT_USER AT_USER 🤣 🤣 🤣 Reviras de pendejo,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.610548715005187</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -524,7 +526,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -533,20 +535,20 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.401171038503948e+18</v>
+        <v>1.401182230303674e+18</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AT_USER Sr alonso, eso es un dicho popular, no es que el Sr Dao lo acaba de inventar... pero como ud siempre… https://t.co/2KFtzx5AfN</t>
+          <t>AT_USER AT_USER El "Señor" está en los cielos, podría ser Ciudadano Alterno del PRI" le caería mejo… https://t.co/xhWvJ5YQr9</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-2.746506414399451</v>
+        <v>1.431824933977495</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -564,20 +566,20 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.401171010280464e+18</v>
+        <v>1.401182226574946e+18</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AT_USER “Que nadie cree”. En serio un poco de humildad a estos tuiteros no?</t>
+          <t>Padrando Alonso https://t.co/PSmvljaJiN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.923473918248786</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -595,20 +597,20 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.40117099576814e+18</v>
+        <v>1.40118204062462e+18</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER Je,je,je el comentario estupido del día</t>
+          <t>AT_USER Todo el mundo sabe que Alonso no rinde más con el F1 porque no siente los colores de Alpine.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.970163323465633</v>
+        <v>-0.01393141336434731</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -626,25 +628,20 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.401170973169263e+18</v>
+        <v>1.401181964749705e+18</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Así #GPAzerbaiyan 
-Leclerc ✌🏻
-Hamilton mucha suerte siempre
-Verstappen le robaron
-Gasly 🤤
-Sainz se desconcentr… https://t.co/DpdXvr1qqc</t>
+          <t>AT_USER Después de que dejó cruzado el auto pasaron Gasly, Alonso, Verstappen, Pérez, Norris y Hamilton. Mi… https://t.co/X4ekoRWYZD</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.460710383511614</v>
+        <v>-2.981641504073704</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -662,20 +659,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.401170972854604e+18</v>
+        <v>1.401181839545573e+18</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AT_USER Varios haters de Alonso por aquí 😂</t>
+          <t>AT_USER AT_USER AT_USER AT_USER Típico Castillo lover que no sabe defender su opinión e insulta.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.3917634475813992</v>
+        <v>0.6361092065462117</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -693,20 +690,20 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.401170954861044e+18</v>
+        <v>1.40118183415579e+18</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>🔴 POLE de Charles Leclerc en el GP de Azerbaiyán de F1... ¡beneficiado otra vez por una bandera roja! Carlos Sainz… https://t.co/acLn3dM4Hq</t>
+          <t>AT_USER AT_USER AT_USER AT_USER Se infiltro en la reunión? Que bestia para crear mentiras para de… https://t.co/bvxr474fIm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.729457381192945</v>
+        <v>-0.9126712622611634</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -724,11 +721,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.401170919519887e+18</v>
+        <v>1.401181781131469e+18</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Triste pq quería ver esa última vuelta de Sainz y Alonso... 😭 https://t.co/YeA9Q7AxJp</t>
+          <t>AT_USER se chanto el guante dice el dicho</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -737,7 +734,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-6.313949474685725</v>
+        <v>-1.944107623046113</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -755,21 +752,20 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.40117089764243e+18</v>
+        <v>1.40118175503444e+18</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ojalá más clasificaciones como las de Bakú.
-Una pena ese accidente de Carlos que tenía opciones de estar más arriba… https://t.co/XKR0oMoeye</t>
+          <t>El número 3 de la revista aparece en marzo de 1927 e incluye a Dámaso Alonso y a Vicente Aleixandre y tiene la pecu… https://t.co/73sFcXosum</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1.337938997665507</v>
+        <v>2.570764217637964</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -787,20 +783,20 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.40117083249222e+18</v>
+        <v>1.401181695232053e+18</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AT_USER Sólo se quién es Fernando Alonso y Vettel, de ahí no me sacas</t>
+          <t>AT_USER AT_USER AT_USER AT_USER En este contexto dónde se afecta en consumidor???</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.8798864626577489</v>
+        <v>0.4230159910855035</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -818,11 +814,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.401170789181932e+18</v>
+        <v>1.401181582497563e+18</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Festival de rebufos. Otra qualy que acaba con bandera roja y otra pole para Leclerc. Una pena perdernos los intento… https://t.co/3RLKso3GQ5</t>
+          <t>AT_USER Francamente hay q ser ? para creer que un candidato marxista leninista maoísta castrista chavista pensam… https://t.co/nBR5IahIsA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -831,7 +827,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7455712319369608</v>
+        <v>1.30891353534233</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -849,13 +845,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.401170727265526e+18</v>
+        <v>1.401181569683964e+18</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>#AzerbaijanGP 
-📌 Charles Leclerc repitió lo hecho en Mónaco  y se quedó con la Pole de #BakuGP.
-Las primeras posic… https://t.co/DFb74pjeCx</t>
+          <t>AT_USER Exacto.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -864,7 +858,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1634681705548878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -882,22 +876,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.401170687130313e+18</v>
+        <v>1.401181556350374e+18</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>No había nacido pero es el orgullo del pueblo colo colino grande club de mis amores 
-La copa se mira y se toca 
-Oja… https://t.co/z3XEzY08yq</t>
+          <t>Gente que odia a carlitos:
+1. Guiris
+2. Vettelistas escocidos que ven que alonso ya tiene heredero al puesto de re… https://t.co/0UcLBw2M0F</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.3718722355192766</v>
+        <v>1.325321371295926</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -906,7 +900,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -915,23 +909,20 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.401170677684654e+18</v>
+        <v>1.401181521961177e+18</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AT_USER Leclerc
-hamilton
-verstappen
-redflag  tsunoda en la ultima vuelta impidió a alonso y a bottas tener tiempo de qually.</t>
+          <t>El fin de semana y el GP de Azerbaiyán se presenta "positivo" para Fernando Alonso. Así ha sido hoy su clasificació… https://t.co/NP7w63y1Wu</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.0002012205524452026</v>
+        <v>0.6209574506695652</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -949,20 +940,20 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.401170676770353e+18</v>
+        <v>1.401181485214876e+18</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AT_USER Ahora dilo sin llorar</t>
+          <t>AT_USER AT_USER AT_USER AT_USER Con estas elecciones mínimo decreto de urgencia para derogar la ley seca SHAAAA!</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-2.414492277253593</v>
+        <v>0.8790882069668917</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -980,20 +971,20 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.401170676678078e+18</v>
+        <v>1.401181472460095e+18</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>#F1 Alonso pudo volver a batir a su compañero en clasificación. Ha dado un buen paso adelante a una vuelta en Baku.… https://t.co/dYh2YztzTd</t>
+          <t>AT_USER AT_USER AT_USER AT_USER No, de lo que se trata es de que primero se asegure la produ… https://t.co/gJFeA8PvrR</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-1.549845102381345</v>
+        <v>0.1559676234310501</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1011,12 +1002,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.401170656969044e+18</v>
+        <v>1.401181456806859e+18</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Me hubiera gustado ver el ultimo intento de Alonso con nuevas
-Hay que ir pensando en las Q a una vuelta. Ya lo dije… https://t.co/vC6ssp9VCb</t>
+          <t>No estará en su mejor momento, pero el hambre que tiene Fernando Alonso y las ganas de mejorar que demuestra día a… https://t.co/bA4KAjqYr6</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1025,7 +1015,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-1.912284454656135</v>
+        <v>-2.205774406094176</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1034,7 +1024,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1043,20 +1033,21 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.4011706078831e+18</v>
+        <v>1.401181379543581e+18</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AT_USER Jajajaja una caja de 🍺 para ti buen hombre 🤣🤣🤣</t>
+          <t>Charles Leclerc se lleva la pole con Sainz quinto y Alonso noveno, para el Gran Premio de Azerbaiyán 
+ https://t.co/8iSFpb5B1I</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.8669035566560919</v>
+        <v>-0.4330981819992768</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1074,20 +1065,20 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.401170549712228e+18</v>
+        <v>1.401181323579085e+18</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Alonso supera la Q2. Jajaja nice</t>
+          <t>AT_USER Feliz sábado Sr Gobernador</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.367477599926355</v>
+        <v>0.1079584042446895</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1105,20 +1096,20 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.40117054391577e+18</v>
+        <v>1.40118127977368e+18</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AT_USER Y esto sin considerar a los comensales viejitos que ya comieron el menú sin importaciones es el hambre,… https://t.co/qBGop6GNWy</t>
+          <t>AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER https://t.co/5YuKsGmGqD</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-0.1317144490207307</v>
+        <v>0.6492423642197017</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1127,7 +1118,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1127,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.40117052662689e+18</v>
+        <v>1.401181249046209e+18</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>#ÚLTIMAHORA | 🚥 Novena 'pole' para Leclerc 🇲🇨, que saldrá por delante de Hamilton 🇬🇧 en Azerbaiyán.
-🇪🇸 Carlos Sain… https://t.co/XOqAhiPpaK</t>
+          <t>AT_USER AT_USER Eres lo más!! Alonso Quijano tenías que ser!! Mi personaje favorito.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1150,7 +1140,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.660045020207324</v>
+        <v>1.575961902996783</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1159,7 +1149,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1168,11 +1158,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.40117051761748e+18</v>
+        <v>1.401181158252159e+18</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AT_USER Je,je,je no jodas.</t>
+          <t>AT_USER Grande Lina Morgan. Grande Anabel Alonso.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,7 +1171,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.947727092659105</v>
+        <v>0.7231205835358415</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1199,11 +1189,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.401170470645514e+18</v>
+        <v>1.401181141718254e+18</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Increíble la qualy de hoy. 4 banderas rojas. Pena Alonso que no haya hecho una vuelta con blandos nuevos. Con eso y… https://t.co/rk7oQ6ieIT</t>
+          <t>AT_USER AT_USER AT_USER AT_USER Esta denunciado. Que terquedad de insistir. Ni Montoya, ni otr… https://t.co/Y8EGfCogfW</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1212,7 +1202,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5.383746600080814</v>
+        <v>0.6492423642197017</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1230,20 +1220,20 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.401170454321062e+18</v>
+        <v>1.401181138773762e+18</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Gasly mejor tiempo, Carlos Sainz 5º, Fernando Alonso 7º https://t.co/w0Tbat7c1N https://t.co/hdGBjJ4yjd</t>
+          <t>AT_USER AT_USER AT_USER No, de lo que se trata es de que primero se asegure el producto nacional y lo que falta se importe.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.8976489189975897</v>
+        <v>0.003619469612991644</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1261,11 +1251,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.401170429180629e+18</v>
+        <v>1.401181128602657e+18</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hoy en #descubriendoeltesoro hablamos del Cáliz de Alonso de Burgos, esperamos que os guste. ¿Y vosotros? ¿Ya habéi… https://t.co/wUicWyBZre</t>
+          <t>Leclerc defiende la pole, Hamilton detrás queriendo recuperar después de Mónaco, Verstappen al lado queriendo aumen… https://t.co/cv7ifTjiMk</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1274,7 +1264,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3.353791442650751</v>
+        <v>1.069596497499011</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1283,7 +1273,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1292,20 +1282,20 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.401170421534298e+18</v>
+        <v>1.401181116216848e+18</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER A pesar de todo el pasivo que pueda tener esta candidata, nunca votariamos por la izquierda… https://t.co/YbuTCdygaH</t>
+          <t>Fernando Alonso: "Si la gente sigue pilotando al 120% y por encima de sus posibilidades, habrá muchos más accidente… https://t.co/3RUC1kkBpx</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-2.240110705763529</v>
+        <v>0.9335755234619189</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1314,7 +1304,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1323,11 +1313,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.401170418141209e+18</v>
+        <v>1.401181091571114e+18</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER AT_USER AT_USER AT_USER Ese el problema, no ven el problema como uno… https://t.co/jJcbsTpcUZ</t>
+          <t>Alonso lo tiene claro: terminar la carrera y luego ya tal. https://t.co/aIthkc5vLE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1336,7 +1326,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.909725166882703</v>
+        <v>0.8444026489790017</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1354,14 +1344,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.401170373782221e+18</v>
+        <v>1.4011809779096e+18</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3. Luz Helena Morales Garay,  fiscal de la JEP.
-4. Lester María González.
-5. Eduardo Castellanos Roso.  
-6. José Gi… https://t.co/tSgloNsW4e</t>
+          <t>AT_USER AT_USER Los fans de zack tambien reciben insultos por pedir algo que quieren. No es la primera vez q… https://t.co/LcynCexvjM</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1370,7 +1357,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3.404130664660819</v>
+        <v>1.431359070609736</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1388,20 +1375,20 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.401170365276111e+18</v>
+        <v>1.401180952076947e+18</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AT_USER Alonso</t>
+          <t>AT_USER No es Perú, la justicia no existe, vez a Hinostroza, a Chavarri,a Cerron, a Keiko sueltos y en espacios de poder 😕</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-4.536834364955331</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1419,20 +1406,20 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.40117034708122e+18</v>
+        <v>1.401180915209064e+18</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER Si desgraciada, por tu culpa el pais está cómo está!!deberia de darte vergüenza (qué no l… https://t.co/jGy83xR7d0</t>
+          <t>Fernando Alonso: "Había opciones de ser 7º u 8º, pero cada vez que ponía un juego nuevo de gomas, llegaba la bander… https://t.co/RCt1r3kryU</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-1.125003897471157</v>
+        <v>4.045275818647903</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1450,11 +1437,14 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.401170301698859e+18</v>
+        <v>1.401180906115813e+18</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>🔴 #ÚLTIMAHORA | Leclerc reina entre la locura en Bakú y Sainz y Fernando Alonso saldrán en el top 10… https://t.co/tJaOOHqVdJ</t>
+          <t>Segunda Pole consecutiva de Leclerc
+Hamilton P2 y Verstappen P3
+Sainz quinto y Alonso noveno
+Qualy caótica con 4 ba… https://t.co/vJPVpMaRlP</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1463,7 +1453,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.983864983992398</v>
+        <v>0.835183390626648</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1481,20 +1471,20 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.401170231448441e+18</v>
+        <v>1.401180630621229e+18</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AT_USER Ahi si grita policía bien sacada la puta</t>
+          <t>Alonso esta semana mejor que uno 😔 https://t.co/Oyax4Vxh6r</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-2.104487948561436</v>
+        <v>0.9389253556978991</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1512,20 +1502,20 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.401170229938491e+18</v>
+        <v>1.401180550933537e+18</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>🔴 #ÚLTIMAHORA | Leclerc reina entre la locura de Bakú y Sainz y Fernando Alonso saldrán en el top 10… https://t.co/ONmOIUfQu1</t>
+          <t>AT_USER Puro Show, intereses políticos, bka bka, bka con K de lágrimas de Kokodrilo. No le creo nada. Y los que… https://t.co/jjisgIBqcq</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1.983864983992398</v>
+        <v>-0.1988903769038904</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1543,11 +1533,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.401170212746154e+18</v>
+        <v>1.401180445220475e+18</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AT_USER Que alguien le diga que lo que está prohibido es la venta de licor, no el consumo.</t>
+          <t>AT_USER AT_USER AT_USER AT_USER Ya me perdí.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1556,7 +1546,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-1.602091927351163</v>
+        <v>-1.748652908578669</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1574,22 +1564,20 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.401170203837411e+18</v>
+        <v>1.401180423619817e+18</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>🔴 DIRECTO | ¡Final de la clasificación del Gran Premio de Azerbaiyán de #F1!
-🔝 Pole para Leclerc 
-🇪🇸 Sainz saldrá… https://t.co/pa2XL2iypj</t>
+          <t>AT_USER Tenemos una generación que ha crecido viendo a Messi y a Cristiano. Piensan q lo normal es meter 60 gol… https://t.co/Ezq6MCpKPq</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3.687922170977163</v>
+        <v>-0.4251167500380887</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1598,7 +1586,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1607,20 +1595,21 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.401170200402203e+18</v>
+        <v>1.401180355818836e+18</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>POLE PARA LECLERC POR SEGUNDA VEZ. Acaba la sesión con otro accidente de Yuki Tsunoda y un trompo de Carlos con el… https://t.co/kbhwb9Dv5Q</t>
+          <t>AT_USER Nos tiene estudiados, mapeados, segmentados.
+Sabe que hay un bolson electoral fácil de manipular al que… https://t.co/iOtaf5yyko</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.02262847868331763</v>
+        <v>0.6975649058637945</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1638,23 +1627,20 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.401170138196591e+18</v>
+        <v>1.401180309710909e+18</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Clasificación Formula 1 // 6ta Fecha (🇦🇿) #AzerbaijanGP
-Top 10
-1° C. Lecrerc🇮🇩    1:41.218
-2° L.Hamilton🇬🇧   0.23… https://t.co/irPM601nw9</t>
+          <t>Hemos vuelto a Tomás A. Alonso. En 14 años que lleva gobernando y con 92 millones de remanentes, Abel Caballero no… https://t.co/zZc02k53zT</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5.76120598465655</v>
+        <v>-0.06560315471154154</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1663,7 +1649,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1672,20 +1658,20 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.401170127954059e+18</v>
+        <v>1.401180284926759e+18</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Un Tsunoda y un Alonso prometedores intentando conservar puestos y un Bottas, un Pérez, un Vettel y un Ricciardo fr… https://t.co/0jO38DRGhT</t>
+          <t>AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER AT_USER https://t.co/qRj24u2QBT</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1559676234310501</v>
+        <v>0.6492423642197017</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1694,7 +1680,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1703,11 +1689,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.401170118873342e+18</v>
+        <v>1.401180273233089e+18</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>AT_USER Choques en todas las rondas. Leclerc se vuelve a llevar la pole con una bandera roja al final (Tsunod… https://t.co/BcLglbnvBb</t>
+          <t>#F1 | 🗣️ Fernando Alonso, contento con el ritmo de Alpine pero contrariado por la mala suerte de tanta bandera roja… https://t.co/DLoJIhRAYJ</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1716,7 +1702,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.8838248606740183</v>
+        <v>1.926258507125389</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1734,18 +1720,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.401170055757505e+18</v>
+        <v>1.401180267507851e+18</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>#F1 - Así será la salida del GP de Azerbaiyán:
-1º Leclerc
-2º Hamilton
-3º Verstappen
-4º Gasly
-5º Sainz
-6º Norris
-7º… https://t.co/3kwsTssi0R</t>
+          <t>YA ES SÁBADO, HOY ALONSO NOS DA LA NOTICIA, QUE NERVIOS.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1754,7 +1733,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-0.5994335121373354</v>
+        <v>-2.213807815040747</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1763,7 +1742,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1772,18 +1751,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.401170050569093e+18</v>
+        <v>1.401180125165674e+18</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>#F1 - Así será la salida del GP de Azerbaiyán:
-1º Leclerc
-2º Hamilton
-3º Verstappen
-4º Gasly
-5º Sainz
-6º Norris
-7º… https://t.co/6Tu2Y8SExT</t>
+          <t>Vamos a jugar a ser adivinos. No se cumplirá ninguna pero bueno jajajajaja: Mañana gana Hamilton, Verstappen se la… https://t.co/sDuuqUbgqN</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1792,7 +1764,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-0.5994335121373354</v>
+        <v>-1.878479969094404</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1810,27 +1782,20 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.401170049075925e+18</v>
+        <v>1.401180033675317e+18</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>#F1 - Así será la salida del GP de Azerbaiyán:
-1º Leclerc
-2º Hamilton
-3º Verstappen
-4º Gasly
-5º Sainz
-6º Norris
-7º… https://t.co/PnUgark6r0</t>
+          <t>No te quedes fuera. Inscríbete en el curso de SVB para animales de compañía. Inicio 8 de junio. https://t.co/D4KRG0f9I4</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-0.5994335121373354</v>
+        <v>0.9152260983001843</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1848,27 +1813,20 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.401170043673747e+18</v>
+        <v>1.401179949344625e+18</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>#F1 - Así será la salida del GP de Azerbaiyán:
-1º Leclerc
-2º Hamilton
-3º Verstappen
-4º Gasly
-5º Sainz
-6º Norris
-7º… https://t.co/QT9CADD0zO</t>
+          <t>AT_USER Voto a voto,el 2016 fue parecido,40 mil votos debe ser algo así como un 0.2% si es que se animan a votar… https://t.co/76q6cv26Ei</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-0.5994335121373354</v>
+        <v>1.515566539857242</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1886,11 +1844,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.401170019061584e+18</v>
+        <v>1.401179855841108e+18</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AT_USER No creo que sea intencionado, porque iba octavo y no se arriesga a salir 13º o último por mantener la… https://t.co/Q1a8k2WC7i</t>
+          <t>No te respondí la historia pero la ví más de una vez...</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1899,7 +1857,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-3.528479687784445</v>
+        <v>-0.6894300788397197</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1917,20 +1875,20 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.401170016167465e+18</v>
+        <v>1.401179820755673e+18</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Alonso cuando le han dicho que no puede completar la vuelta por bandera roja de Tsunoda: https://t.co/whJzRXQKmP</t>
+          <t>sara alonso fidalgo sufre de hemorroides</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-0.05444064070345267</v>
+        <v>-1.142517105008353</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1939,7 +1897,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1948,11 +1906,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.40116999157207e+18</v>
+        <v>1.401179809112375e+18</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER AT_USER AT_USER Si vez siguen pronunciandose sobre terceros nunca dobfe el candidato… https://t.co/Sgam7V5n7k</t>
+          <t>🏎️ Carlos Sainz quinto y Fernando Alonso noveno, digna clasificación para los pilotos españoles, mañana el gran pre… https://t.co/yDFp7VV92z</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1961,7 +1919,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1.197935406514662</v>
+        <v>2.603190863474436</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1979,11 +1937,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.4011699803061e+18</v>
+        <v>1.401179722365669e+18</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Pole para Leclerc... La segunda consecutiva para para Ferrari. Hamilton P2, Verstappen P3, Gasly P4, Sainz P5, Norr… https://t.co/p8nURVHUK5</t>
+          <t>AT_USER No seas piojo y paga tu suscripción a F1TV para que tragues todo el Alonso que quieras!!!</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1992,7 +1950,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.3181119250457161</v>
+        <v>0.4230159910855035</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2010,11 +1968,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.401169942624489e+18</v>
+        <v>1.401179706364412e+18</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AT_USER Los principios y valores de la honestidad "no se negocian" a favor de una democracia corrupta votando po… https://t.co/tEqx0QGqjN</t>
+          <t>amo a Alonso pero... https://t.co/k5pNbiMSfB https://t.co/TFzGtDNzAF</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2023,7 +1981,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.5972370548259036</v>
+        <v>0.6846349601952237</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2032,7 +1990,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2041,11 +1999,12 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.401169904695493e+18</v>
+        <v>1.401179641088549e+18</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>AT_USER AT_USER "¿Trata de pericotearse?" Se pericoteó el vuelto durante décadas usando a los mozos esb… https://t.co/YAE9bAYtAM</t>
+          <t>AT_USER AT_USER Si fuera viejo diria 
+Fernando Alonso es un excelente piloto 🚨👍</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2054,7 +2013,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-0.937759317407871</v>
+        <v>-0.6492007159545941</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2063,7 +2022,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
